--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_18_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_18_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1418844.39176961</v>
+        <v>1417110.910655966</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6049179.212228716</v>
+        <v>6049179.21222871</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673423</v>
       </c>
     </row>
     <row r="9">
@@ -1373,7 +1373,7 @@
         <v>285.8416805439006</v>
       </c>
       <c r="D11" t="n">
-        <v>25.59057423497012</v>
+        <v>275.251830393576</v>
       </c>
       <c r="E11" t="n">
         <v>302.4991588451549</v>
@@ -1382,13 +1382,13 @@
         <v>327.4448345146045</v>
       </c>
       <c r="G11" t="n">
-        <v>333.0902356170842</v>
+        <v>210.455116343857</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>23.81896975173338</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.21019719500379</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>269.8097574903061</v>
       </c>
       <c r="X11" t="n">
         <v>290.2998894513621</v>
       </c>
       <c r="Y11" t="n">
-        <v>306.8067274289467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>107.1774983819426</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1464,7 +1464,7 @@
         <v>135.8553954612995</v>
       </c>
       <c r="H12" t="n">
-        <v>18.43211025672109</v>
+        <v>97.863321483828</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1500,7 +1500,7 @@
         <v>144.0419631757947</v>
       </c>
       <c r="T12" t="n">
-        <v>194.1665539401884</v>
+        <v>114.7353427130815</v>
       </c>
       <c r="U12" t="n">
         <v>225.843479337428</v>
@@ -1509,7 +1509,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>192.3392978929961</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.76594105089784</v>
+        <v>41.76594105089783</v>
       </c>
       <c r="S13" t="n">
         <v>122.8432739200354</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>239.4433864928873</v>
+        <v>303.3026304363736</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>23.81896975173338</v>
+        <v>23.81896975173336</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,10 +1661,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>171.6919384270541</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>107.8326944835695</v>
       </c>
       <c r="W14" t="n">
         <v>269.8097574903061</v>
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>107.1774983819427</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1692,7 +1692,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>78.21386922829403</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1704,7 +1704,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>12.31177431642925</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>7.763751642754499</v>
       </c>
       <c r="S15" t="n">
-        <v>144.0419631757947</v>
+        <v>64.61075194868782</v>
       </c>
       <c r="T15" t="n">
-        <v>114.7353427130815</v>
+        <v>194.1665539401884</v>
       </c>
       <c r="U15" t="n">
-        <v>146.4122681103211</v>
+        <v>225.843479337428</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1752,7 +1752,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>126.2514845501974</v>
       </c>
     </row>
     <row r="16">
@@ -1780,7 +1780,7 @@
         <v>87.31217688571736</v>
       </c>
       <c r="H16" t="n">
-        <v>71.70374093278249</v>
+        <v>71.70374093278248</v>
       </c>
       <c r="I16" t="n">
         <v>38.50079242234364</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.76594105089784</v>
+        <v>41.76594105089783</v>
       </c>
       <c r="S16" t="n">
         <v>122.8432739200354</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>43.97309655957883</v>
+        <v>223.8714192092667</v>
       </c>
       <c r="C17" t="n">
         <v>206.4104693167937</v>
@@ -1850,7 +1850,7 @@
         <v>195.8206191664691</v>
       </c>
       <c r="E17" t="n">
-        <v>223.067947618048</v>
+        <v>223.0679476180479</v>
       </c>
       <c r="F17" t="n">
         <v>248.0136232874976</v>
@@ -1859,7 +1859,7 @@
         <v>253.6590243899773</v>
       </c>
       <c r="H17" t="n">
-        <v>152.1284865777489</v>
+        <v>152.1284865777488</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,13 +1895,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>52.05832719786051</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>92.26072719994715</v>
+        <v>92.26072719994713</v>
       </c>
       <c r="V17" t="n">
-        <v>168.8898360159211</v>
+        <v>41.04984056409302</v>
       </c>
       <c r="W17" t="n">
         <v>190.3785462631992</v>
@@ -1910,7 +1910,7 @@
         <v>210.8686782242552</v>
       </c>
       <c r="Y17" t="n">
-        <v>227.3755162018398</v>
+        <v>227.3755162018397</v>
       </c>
     </row>
     <row r="18">
@@ -1926,22 +1926,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>28.37155486453321</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>135.8553954612995</v>
       </c>
       <c r="H18" t="n">
-        <v>97.863321483828</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>38.1608637285961</v>
+        <v>38.16086372859608</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,19 +1968,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.763751642754514</v>
+        <v>7.763751642754499</v>
       </c>
       <c r="S18" t="n">
         <v>144.0419631757947</v>
       </c>
       <c r="T18" t="n">
-        <v>194.1665539401884</v>
+        <v>35.30413148597455</v>
       </c>
       <c r="U18" t="n">
         <v>225.843479337428</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>225.3836079939797</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20.96955772772347</v>
+        <v>20.96955772772344</v>
       </c>
       <c r="C19" t="n">
-        <v>8.384398644414006</v>
+        <v>8.384398644413977</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>7.880965658610455</v>
+        <v>7.880965658610426</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>43.41206269292851</v>
+        <v>202.2744851471423</v>
       </c>
       <c r="T19" t="n">
-        <v>63.75254983362944</v>
+        <v>63.75254983362942</v>
       </c>
       <c r="U19" t="n">
         <v>127.388556470697</v>
       </c>
       <c r="V19" t="n">
-        <v>93.27522086961417</v>
+        <v>93.27522086961415</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>127.6605758823771</v>
       </c>
       <c r="X19" t="n">
-        <v>66.84723293482332</v>
+        <v>144.6553900506652</v>
       </c>
       <c r="Y19" t="n">
-        <v>139.7118983853655</v>
+        <v>59.72223089788093</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>196.101583137325</v>
+        <v>223.8714192092667</v>
       </c>
       <c r="C20" t="n">
         <v>206.4104693167937</v>
@@ -2087,7 +2087,7 @@
         <v>195.8206191664691</v>
       </c>
       <c r="E20" t="n">
-        <v>223.067947618048</v>
+        <v>223.0679476180479</v>
       </c>
       <c r="F20" t="n">
         <v>248.0136232874976</v>
@@ -2096,7 +2096,7 @@
         <v>253.6590243899773</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>152.1284865777488</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>52.05832719786051</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>92.26072719994715</v>
+        <v>92.26072719994713</v>
       </c>
       <c r="V20" t="n">
-        <v>168.8898360159211</v>
+        <v>168.889836015921</v>
       </c>
       <c r="W20" t="n">
-        <v>190.3785462631992</v>
+        <v>62.53855081137129</v>
       </c>
       <c r="X20" t="n">
         <v>210.8686782242552</v>
       </c>
       <c r="Y20" t="n">
-        <v>227.3755162018398</v>
+        <v>227.3755162018397</v>
       </c>
     </row>
     <row r="21">
@@ -2169,16 +2169,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>47.55266339686478</v>
       </c>
       <c r="G21" t="n">
         <v>135.8553954612995</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>97.863321483828</v>
       </c>
       <c r="I21" t="n">
-        <v>38.1608637285961</v>
+        <v>38.16086372859608</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,16 +2208,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>144.0419631757947</v>
       </c>
       <c r="T21" t="n">
-        <v>179.6928671490769</v>
+        <v>194.1665539401884</v>
       </c>
       <c r="U21" t="n">
         <v>225.843479337428</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>73.93816469521141</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>20.96955772772347</v>
+        <v>20.96955772772344</v>
       </c>
       <c r="C22" t="n">
-        <v>8.384398644414006</v>
+        <v>107.8969723635052</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>7.880965658610455</v>
+        <v>7.880965658610426</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>151.1349521598894</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>121.1971522780048</v>
       </c>
       <c r="S22" t="n">
-        <v>43.41206269292851</v>
+        <v>43.41206269292847</v>
       </c>
       <c r="T22" t="n">
-        <v>63.75254983362944</v>
+        <v>63.75254983362942</v>
       </c>
       <c r="U22" t="n">
         <v>127.388556470697</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>127.6605758823771</v>
       </c>
       <c r="X22" t="n">
-        <v>158.6323363595897</v>
+        <v>66.8472329348233</v>
       </c>
       <c r="Y22" t="n">
-        <v>59.72223089788096</v>
+        <v>59.72223089788093</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2324,7 @@
         <v>195.8206191664691</v>
       </c>
       <c r="E23" t="n">
-        <v>223.067947618048</v>
+        <v>223.0679476180479</v>
       </c>
       <c r="F23" t="n">
         <v>248.0136232874976</v>
@@ -2333,7 +2333,7 @@
         <v>253.6590243899773</v>
       </c>
       <c r="H23" t="n">
-        <v>152.1284865777489</v>
+        <v>152.1284865777488</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,13 +2369,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>52.05832719786051</v>
+        <v>52.05832719786048</v>
       </c>
       <c r="U23" t="n">
-        <v>92.26072719994715</v>
+        <v>92.26072719994713</v>
       </c>
       <c r="V23" t="n">
-        <v>168.8898360159211</v>
+        <v>168.889836015921</v>
       </c>
       <c r="W23" t="n">
         <v>190.3785462631992</v>
@@ -2384,7 +2384,7 @@
         <v>210.8686782242552</v>
       </c>
       <c r="Y23" t="n">
-        <v>227.3755162018398</v>
+        <v>227.3755162018397</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>135.8553954612995</v>
       </c>
       <c r="H24" t="n">
-        <v>13.61892104002822</v>
+        <v>97.863321483828</v>
       </c>
       <c r="I24" t="n">
-        <v>38.1608637285961</v>
+        <v>38.16086372859608</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7.763751642754514</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>144.0419631757947</v>
@@ -2463,7 +2463,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>129.2020469762603</v>
       </c>
     </row>
     <row r="25">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>20.96955772772344</v>
       </c>
       <c r="C25" t="n">
-        <v>8.384398644414006</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>7.880965658610455</v>
+        <v>7.880965658610426</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>151.1349521598894</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>75.28867797416451</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.54829305620206</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>43.41206269292851</v>
+        <v>43.41206269292847</v>
       </c>
       <c r="T25" t="n">
-        <v>63.75254983362944</v>
+        <v>63.75254983362942</v>
       </c>
       <c r="U25" t="n">
         <v>127.388556470697</v>
       </c>
       <c r="V25" t="n">
-        <v>93.27522086961417</v>
+        <v>93.27522086961415</v>
       </c>
       <c r="W25" t="n">
-        <v>127.6605758823772</v>
+        <v>127.6605758823771</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>66.8472329348233</v>
       </c>
       <c r="Y25" t="n">
-        <v>59.72223089788096</v>
+        <v>59.72223089788093</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>303.3026304363736</v>
       </c>
       <c r="C26" t="n">
-        <v>285.8416805439006</v>
+        <v>285.8416805439007</v>
       </c>
       <c r="D26" t="n">
         <v>275.251830393576</v>
@@ -2573,7 +2573,7 @@
         <v>231.5596978048558</v>
       </c>
       <c r="I26" t="n">
-        <v>23.81896975173336</v>
+        <v>23.81896975173339</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.21019719500373</v>
+        <v>66.21019719500376</v>
       </c>
       <c r="T26" t="n">
         <v>131.4895384249674</v>
       </c>
       <c r="U26" t="n">
-        <v>171.691938427054</v>
+        <v>171.6919384270541</v>
       </c>
       <c r="V26" t="n">
         <v>248.321047243028</v>
@@ -2652,7 +2652,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I27" t="n">
-        <v>38.1608637285961</v>
+        <v>38.16086372859608</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>7.763751642754514</v>
+        <v>7.763751642754499</v>
       </c>
       <c r="S27" t="n">
         <v>144.0419631757947</v>
@@ -2713,25 +2713,25 @@
         <v>100.4007689548304</v>
       </c>
       <c r="C28" t="n">
-        <v>87.81560987152089</v>
+        <v>87.81560987152093</v>
       </c>
       <c r="D28" t="n">
-        <v>69.18426179110541</v>
+        <v>69.18426179110546</v>
       </c>
       <c r="E28" t="n">
-        <v>67.00275141946223</v>
+        <v>67.00275141946227</v>
       </c>
       <c r="F28" t="n">
-        <v>65.9898367958243</v>
+        <v>65.98983679582435</v>
       </c>
       <c r="G28" t="n">
-        <v>87.31217688571734</v>
+        <v>87.31217688571738</v>
       </c>
       <c r="H28" t="n">
-        <v>71.70374093278247</v>
+        <v>71.70374093278249</v>
       </c>
       <c r="I28" t="n">
-        <v>38.50079242234361</v>
+        <v>38.50079242234365</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76594105089781</v>
+        <v>41.76594105089785</v>
       </c>
       <c r="S28" t="n">
         <v>122.8432739200354</v>
       </c>
       <c r="T28" t="n">
-        <v>143.1837610607363</v>
+        <v>143.1837610607364</v>
       </c>
       <c r="U28" t="n">
         <v>206.8197676978039</v>
@@ -2776,7 +2776,7 @@
         <v>207.0917871094841</v>
       </c>
       <c r="X28" t="n">
-        <v>146.2784441619302</v>
+        <v>146.2784441619303</v>
       </c>
       <c r="Y28" t="n">
         <v>139.1534421249879</v>
@@ -2810,7 +2810,7 @@
         <v>231.5596978048558</v>
       </c>
       <c r="I29" t="n">
-        <v>23.81896975173336</v>
+        <v>23.81896975173333</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.21019719500373</v>
+        <v>66.21019719500372</v>
       </c>
       <c r="T29" t="n">
         <v>131.4895384249674</v>
@@ -2849,7 +2849,7 @@
         <v>171.691938427054</v>
       </c>
       <c r="V29" t="n">
-        <v>248.321047243028</v>
+        <v>248.3210472430279</v>
       </c>
       <c r="W29" t="n">
         <v>269.8097574903061</v>
@@ -2858,7 +2858,7 @@
         <v>290.2998894513621</v>
       </c>
       <c r="Y29" t="n">
-        <v>306.8067274289467</v>
+        <v>306.8067274289466</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I30" t="n">
-        <v>38.1608637285961</v>
+        <v>38.16086372859608</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>7.763751642754514</v>
+        <v>7.763751642754499</v>
       </c>
       <c r="S30" t="n">
         <v>144.0419631757947</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.4007689548304</v>
+        <v>100.4007689548303</v>
       </c>
       <c r="C31" t="n">
-        <v>87.81560987152089</v>
+        <v>87.81560987152088</v>
       </c>
       <c r="D31" t="n">
-        <v>69.18426179110541</v>
+        <v>69.1842617911054</v>
       </c>
       <c r="E31" t="n">
-        <v>67.00275141946223</v>
+        <v>67.00275141946221</v>
       </c>
       <c r="F31" t="n">
-        <v>65.9898367958243</v>
+        <v>65.98983679582429</v>
       </c>
       <c r="G31" t="n">
-        <v>87.31217688571734</v>
+        <v>87.31217688571732</v>
       </c>
       <c r="H31" t="n">
-        <v>71.70374093278247</v>
+        <v>71.70374093278244</v>
       </c>
       <c r="I31" t="n">
-        <v>38.50079242234361</v>
+        <v>38.50079242234359</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.76594105089781</v>
+        <v>41.76594105089779</v>
       </c>
       <c r="S31" t="n">
         <v>122.8432739200354</v>
@@ -3007,16 +3007,16 @@
         <v>206.8197676978039</v>
       </c>
       <c r="V31" t="n">
-        <v>172.7064320967211</v>
+        <v>172.706432096721</v>
       </c>
       <c r="W31" t="n">
-        <v>207.0917871094841</v>
+        <v>207.091787109484</v>
       </c>
       <c r="X31" t="n">
         <v>146.2784441619302</v>
       </c>
       <c r="Y31" t="n">
-        <v>139.1534421249879</v>
+        <v>139.1534421249878</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>231.5596978048558</v>
       </c>
       <c r="I32" t="n">
-        <v>23.81896975173338</v>
+        <v>23.81896975173335</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.21019719500373</v>
+        <v>66.21019719500372</v>
       </c>
       <c r="T32" t="n">
         <v>131.4895384249674</v>
       </c>
       <c r="U32" t="n">
-        <v>171.6919384270541</v>
+        <v>171.691938427054</v>
       </c>
       <c r="V32" t="n">
         <v>248.321047243028</v>
@@ -3095,7 +3095,7 @@
         <v>290.2998894513621</v>
       </c>
       <c r="Y32" t="n">
-        <v>306.8067274289469</v>
+        <v>306.8067274289467</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I33" t="n">
-        <v>38.1608637285961</v>
+        <v>38.16086372859608</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>7.763751642754514</v>
+        <v>7.763751642754499</v>
       </c>
       <c r="S33" t="n">
         <v>144.0419631757947</v>
@@ -3205,7 +3205,7 @@
         <v>71.70374093278245</v>
       </c>
       <c r="I34" t="n">
-        <v>38.50079242234362</v>
+        <v>38.50079242234361</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>237.0924332413699</v>
+        <v>237.0924332413698</v>
       </c>
       <c r="C35" t="n">
-        <v>219.6314833488969</v>
+        <v>219.6314833488968</v>
       </c>
       <c r="D35" t="n">
-        <v>209.0416331985723</v>
+        <v>209.0416331985722</v>
       </c>
       <c r="E35" t="n">
-        <v>236.2889616501511</v>
+        <v>236.288961650151</v>
       </c>
       <c r="F35" t="n">
-        <v>261.2346373196008</v>
+        <v>261.2346373196007</v>
       </c>
       <c r="G35" t="n">
-        <v>266.8800384220805</v>
+        <v>266.8800384220804</v>
       </c>
       <c r="H35" t="n">
-        <v>165.349500609852</v>
+        <v>165.3495006098519</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,22 +3317,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>65.27934122996365</v>
+        <v>65.27934122996356</v>
       </c>
       <c r="U35" t="n">
-        <v>105.4817412320503</v>
+        <v>105.4817412320502</v>
       </c>
       <c r="V35" t="n">
-        <v>182.1108500480242</v>
+        <v>182.1108500480241</v>
       </c>
       <c r="W35" t="n">
-        <v>203.5995602953023</v>
+        <v>203.5995602953022</v>
       </c>
       <c r="X35" t="n">
         <v>224.0896922563583</v>
       </c>
       <c r="Y35" t="n">
-        <v>240.5965302339429</v>
+        <v>240.5965302339428</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I36" t="n">
-        <v>38.1608637285961</v>
+        <v>38.16086372859608</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>7.763751642754514</v>
+        <v>7.763751642754499</v>
       </c>
       <c r="S36" t="n">
         <v>144.0419631757947</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>34.19057175982653</v>
       </c>
       <c r="C37" t="n">
-        <v>21.60541267651715</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>2.97406459610167</v>
+        <v>100.92804548371</v>
       </c>
       <c r="E37" t="n">
-        <v>0.7925542244584847</v>
+        <v>0.7925542244583994</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>21.10197969071359</v>
+        <v>21.10197969071351</v>
       </c>
       <c r="H37" t="n">
-        <v>5.493543737778715</v>
+        <v>5.493543737778628</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>56.63307672503165</v>
+        <v>56.63307672503156</v>
       </c>
       <c r="T37" t="n">
-        <v>76.97356386573259</v>
+        <v>76.9735638657325</v>
       </c>
       <c r="U37" t="n">
-        <v>140.6095705028001</v>
+        <v>140.6095705028</v>
       </c>
       <c r="V37" t="n">
-        <v>204.4502157893243</v>
+        <v>106.4962349017172</v>
       </c>
       <c r="W37" t="n">
-        <v>140.8815899144803</v>
+        <v>140.8815899144802</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>72.9432449299841</v>
+        <v>72.94324492998402</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>237.0924332413699</v>
+        <v>237.0924332413698</v>
       </c>
       <c r="C38" t="n">
-        <v>219.6314833488969</v>
+        <v>219.6314833488968</v>
       </c>
       <c r="D38" t="n">
-        <v>209.0416331985723</v>
+        <v>209.0416331985722</v>
       </c>
       <c r="E38" t="n">
-        <v>236.2889616501511</v>
+        <v>236.288961650151</v>
       </c>
       <c r="F38" t="n">
-        <v>261.2346373196008</v>
+        <v>261.2346373196007</v>
       </c>
       <c r="G38" t="n">
-        <v>266.8800384220805</v>
+        <v>266.8800384220804</v>
       </c>
       <c r="H38" t="n">
-        <v>165.349500609852</v>
+        <v>165.3495006098519</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>65.27934122996365</v>
+        <v>65.27934122996356</v>
       </c>
       <c r="U38" t="n">
-        <v>105.4817412320503</v>
+        <v>105.4817412320502</v>
       </c>
       <c r="V38" t="n">
-        <v>182.1108500480242</v>
+        <v>182.1108500480241</v>
       </c>
       <c r="W38" t="n">
-        <v>203.5995602953023</v>
+        <v>203.5995602953022</v>
       </c>
       <c r="X38" t="n">
         <v>224.0896922563583</v>
       </c>
       <c r="Y38" t="n">
-        <v>240.5965302339429</v>
+        <v>240.5965302339428</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I39" t="n">
-        <v>38.1608637285961</v>
+        <v>38.16086372859608</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>7.763751642754514</v>
+        <v>7.763751642754499</v>
       </c>
       <c r="S39" t="n">
         <v>144.0419631757947</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>34.19057175982653</v>
       </c>
       <c r="C40" t="n">
-        <v>21.60541267651715</v>
+        <v>21.60541267651706</v>
       </c>
       <c r="D40" t="n">
-        <v>2.97406459610167</v>
+        <v>2.974064596101584</v>
       </c>
       <c r="E40" t="n">
-        <v>98.74653511206537</v>
+        <v>98.96689551124635</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.7433881128243</v>
+        <v>21.10197969071351</v>
       </c>
       <c r="H40" t="n">
-        <v>5.493543737778715</v>
+        <v>5.493543737778628</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>56.63307672503165</v>
+        <v>56.63307672503156</v>
       </c>
       <c r="T40" t="n">
-        <v>76.97356386573259</v>
+        <v>76.9735638657325</v>
       </c>
       <c r="U40" t="n">
-        <v>140.6095705028001</v>
+        <v>140.6095705028</v>
       </c>
       <c r="V40" t="n">
-        <v>106.4962349017173</v>
+        <v>106.4962349017172</v>
       </c>
       <c r="W40" t="n">
-        <v>140.8815899144803</v>
+        <v>140.8815899144802</v>
       </c>
       <c r="X40" t="n">
-        <v>80.06824696692647</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>72.9432449299841</v>
+        <v>72.94324492998402</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>237.0924332413699</v>
+        <v>237.0924332413698</v>
       </c>
       <c r="C41" t="n">
-        <v>219.6314833488969</v>
+        <v>219.6314833488968</v>
       </c>
       <c r="D41" t="n">
-        <v>209.0416331985723</v>
+        <v>209.0416331985722</v>
       </c>
       <c r="E41" t="n">
-        <v>236.2889616501511</v>
+        <v>236.288961650151</v>
       </c>
       <c r="F41" t="n">
-        <v>261.2346373196008</v>
+        <v>261.2346373196007</v>
       </c>
       <c r="G41" t="n">
-        <v>266.8800384220805</v>
+        <v>266.8800384220804</v>
       </c>
       <c r="H41" t="n">
-        <v>165.349500609852</v>
+        <v>165.3495006098519</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>65.27934122996365</v>
+        <v>65.27934122996356</v>
       </c>
       <c r="U41" t="n">
-        <v>105.4817412320503</v>
+        <v>105.4817412320502</v>
       </c>
       <c r="V41" t="n">
-        <v>182.1108500480242</v>
+        <v>182.1108500480241</v>
       </c>
       <c r="W41" t="n">
-        <v>203.5995602953023</v>
+        <v>203.5995602953022</v>
       </c>
       <c r="X41" t="n">
         <v>224.0896922563583</v>
       </c>
       <c r="Y41" t="n">
-        <v>240.5965302339429</v>
+        <v>240.5965302339428</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I42" t="n">
-        <v>38.1608637285961</v>
+        <v>38.16086372859608</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>7.763751642754514</v>
+        <v>7.763751642754499</v>
       </c>
       <c r="S42" t="n">
         <v>144.0419631757947</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>156.5888087915394</v>
+        <v>34.19057175982653</v>
       </c>
       <c r="C43" t="n">
-        <v>21.60541267651715</v>
+        <v>21.60541267651706</v>
       </c>
       <c r="D43" t="n">
-        <v>2.97406459610167</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7925542244584847</v>
+        <v>0.7925542244583994</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>21.10197969071359</v>
+        <v>143.5002167224279</v>
       </c>
       <c r="H43" t="n">
-        <v>5.493543737778715</v>
+        <v>5.493543737778628</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>121.1971522780048</v>
       </c>
       <c r="S43" t="n">
-        <v>56.63307672503165</v>
+        <v>56.63307672503156</v>
       </c>
       <c r="T43" t="n">
-        <v>76.97356386573259</v>
+        <v>76.9735638657325</v>
       </c>
       <c r="U43" t="n">
-        <v>140.6095705028001</v>
+        <v>140.6095705028</v>
       </c>
       <c r="V43" t="n">
-        <v>106.4962349017173</v>
+        <v>106.4962349017172</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>140.8815899144802</v>
       </c>
       <c r="X43" t="n">
-        <v>80.06824696692647</v>
+        <v>80.06824696692638</v>
       </c>
       <c r="Y43" t="n">
-        <v>72.9432449299841</v>
+        <v>72.94324492998402</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3992,7 @@
         <v>266.8800384220805</v>
       </c>
       <c r="H44" t="n">
-        <v>165.3495006098511</v>
+        <v>165.349500609852</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I45" t="n">
-        <v>38.1608637285961</v>
+        <v>38.16086372859608</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>7.763751642754514</v>
+        <v>7.763751642754499</v>
       </c>
       <c r="S45" t="n">
         <v>144.0419631757947</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>34.19057175982661</v>
       </c>
       <c r="C46" t="n">
         <v>21.60541267651715</v>
       </c>
       <c r="D46" t="n">
-        <v>2.97406459610167</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0.7925542244584847</v>
@@ -4150,13 +4150,13 @@
         <v>21.10197969071359</v>
       </c>
       <c r="H46" t="n">
-        <v>5.493543737778715</v>
+        <v>151.1349521598894</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>5.154479050315274</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>92.79950183729167</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>56.63307672503165</v>
+        <v>56.63307672503164</v>
       </c>
       <c r="T46" t="n">
         <v>76.97356386573259</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2509789249108</v>
+        <v>140.6095705028001</v>
       </c>
       <c r="V46" t="n">
         <v>106.4962349017173</v>
@@ -4201,7 +4201,7 @@
         <v>80.06824696692647</v>
       </c>
       <c r="Y46" t="n">
-        <v>72.9432449299841</v>
+        <v>170.8972258175912</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1358.088891360215</v>
+        <v>1462.338555131575</v>
       </c>
       <c r="C11" t="n">
-        <v>1069.359921113851</v>
+        <v>1173.60958488521</v>
       </c>
       <c r="D11" t="n">
-        <v>1043.510856230043</v>
+        <v>895.5774329725073</v>
       </c>
       <c r="E11" t="n">
-        <v>737.9561503258465</v>
+        <v>590.0227270683104</v>
       </c>
       <c r="F11" t="n">
-        <v>407.2037922302863</v>
+        <v>259.2703689727506</v>
       </c>
       <c r="G11" t="n">
-        <v>70.74900877868623</v>
+        <v>46.68944337289496</v>
       </c>
       <c r="H11" t="n">
-        <v>70.74900877868623</v>
+        <v>46.68944337289496</v>
       </c>
       <c r="I11" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289496</v>
       </c>
       <c r="J11" t="n">
-        <v>101.1519812836721</v>
+        <v>268.5576303040251</v>
       </c>
       <c r="K11" t="n">
-        <v>434.2897921350809</v>
+        <v>400.9213749217366</v>
       </c>
       <c r="L11" t="n">
-        <v>1012.071653874656</v>
+        <v>602.0320663808826</v>
       </c>
       <c r="M11" t="n">
-        <v>1589.853515614231</v>
+        <v>857.475897955021</v>
       </c>
       <c r="N11" t="n">
-        <v>1854.044503820375</v>
+        <v>1435.257759694596</v>
       </c>
       <c r="O11" t="n">
-        <v>2090.177301161568</v>
+        <v>1855.392739562408</v>
       </c>
       <c r="P11" t="n">
-        <v>2257.210179707975</v>
+        <v>2022.425618108815</v>
       </c>
       <c r="Q11" t="n">
-        <v>2334.472168644747</v>
+        <v>2309.879447798892</v>
       </c>
       <c r="R11" t="n">
-        <v>2334.472168644747</v>
+        <v>2334.472168644748</v>
       </c>
       <c r="S11" t="n">
-        <v>2267.593181579087</v>
+        <v>2334.472168644748</v>
       </c>
       <c r="T11" t="n">
-        <v>2267.593181579087</v>
+        <v>2334.472168644748</v>
       </c>
       <c r="U11" t="n">
-        <v>2267.593181579087</v>
+        <v>2334.472168644748</v>
       </c>
       <c r="V11" t="n">
-        <v>2267.593181579087</v>
+        <v>2334.472168644748</v>
       </c>
       <c r="W11" t="n">
-        <v>2267.593181579087</v>
+        <v>2061.937060068682</v>
       </c>
       <c r="X11" t="n">
-        <v>1974.360970012054</v>
+        <v>1768.704848501649</v>
       </c>
       <c r="Y11" t="n">
-        <v>1664.45518473029</v>
+        <v>1768.704848501649</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>751.4613139715343</v>
+        <v>831.6948606655818</v>
       </c>
       <c r="C12" t="n">
-        <v>577.0082846904073</v>
+        <v>657.2418313844548</v>
       </c>
       <c r="D12" t="n">
-        <v>508.3074217232034</v>
+        <v>588.540968417251</v>
       </c>
       <c r="E12" t="n">
-        <v>349.0699667177479</v>
+        <v>429.3035134117954</v>
       </c>
       <c r="F12" t="n">
-        <v>202.5354087446329</v>
+        <v>282.7689554386803</v>
       </c>
       <c r="G12" t="n">
-        <v>65.30773656150211</v>
+        <v>145.5412832555495</v>
       </c>
       <c r="H12" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289496</v>
       </c>
       <c r="I12" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289496</v>
       </c>
       <c r="J12" t="n">
-        <v>60.30911088982451</v>
+        <v>60.30911088982455</v>
       </c>
       <c r="K12" t="n">
         <v>161.742116709907</v>
       </c>
       <c r="L12" t="n">
-        <v>711.5857936509824</v>
+        <v>711.5857936509826</v>
       </c>
       <c r="M12" t="n">
-        <v>944.1586387182479</v>
+        <v>1289.367655390558</v>
       </c>
       <c r="N12" t="n">
-        <v>1521.940500457823</v>
+        <v>1542.504656540402</v>
       </c>
       <c r="O12" t="n">
-        <v>2099.722362197398</v>
+        <v>1751.855763066454</v>
       </c>
       <c r="P12" t="n">
-        <v>2284.996269409651</v>
+        <v>2077.019754551162</v>
       </c>
       <c r="Q12" t="n">
-        <v>2334.472168644747</v>
+        <v>2334.472168644748</v>
       </c>
       <c r="R12" t="n">
-        <v>2334.472168644747</v>
+        <v>2334.472168644748</v>
       </c>
       <c r="S12" t="n">
-        <v>2188.975236143944</v>
+        <v>2188.975236143945</v>
       </c>
       <c r="T12" t="n">
-        <v>1992.847403881128</v>
+        <v>2073.080950575176</v>
       </c>
       <c r="U12" t="n">
-        <v>1764.722677277665</v>
+        <v>1844.956223971714</v>
       </c>
       <c r="V12" t="n">
-        <v>1529.570569045922</v>
+        <v>1609.804115739971</v>
       </c>
       <c r="W12" t="n">
-        <v>1275.333212317721</v>
+        <v>1415.521996656136</v>
       </c>
       <c r="X12" t="n">
-        <v>1067.481712112188</v>
+        <v>1207.670496450604</v>
       </c>
       <c r="Y12" t="n">
-        <v>859.7214133472339</v>
+        <v>999.9101976856498</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>539.1229485433553</v>
+        <v>539.1229485433557</v>
       </c>
       <c r="C13" t="n">
-        <v>450.4203123094958</v>
+        <v>450.4203123094962</v>
       </c>
       <c r="D13" t="n">
-        <v>380.5372195912074</v>
+        <v>380.5372195912079</v>
       </c>
       <c r="E13" t="n">
-        <v>312.8576727028617</v>
+        <v>312.8576727028621</v>
       </c>
       <c r="F13" t="n">
-        <v>246.2012718989987</v>
+        <v>246.2012718989992</v>
       </c>
       <c r="G13" t="n">
-        <v>158.007153832618</v>
+        <v>158.0071538326183</v>
       </c>
       <c r="H13" t="n">
-        <v>85.57913268839329</v>
+        <v>85.57913268839359</v>
       </c>
       <c r="I13" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289496</v>
       </c>
       <c r="J13" t="n">
-        <v>120.2234082279187</v>
+        <v>120.2234082279189</v>
       </c>
       <c r="K13" t="n">
-        <v>320.311455508008</v>
+        <v>320.3114555080081</v>
       </c>
       <c r="L13" t="n">
-        <v>609.8904447105126</v>
+        <v>609.8904447105131</v>
       </c>
       <c r="M13" t="n">
-        <v>921.3253246538482</v>
+        <v>921.3253246538484</v>
       </c>
       <c r="N13" t="n">
         <v>1232.659405364007</v>
@@ -5218,31 +5218,31 @@
         <v>1735.537777472236</v>
       </c>
       <c r="Q13" t="n">
-        <v>1832.298320439746</v>
+        <v>1832.298320439747</v>
       </c>
       <c r="R13" t="n">
-        <v>1790.110501196415</v>
+        <v>1790.110501196416</v>
       </c>
       <c r="S13" t="n">
-        <v>1666.026386125672</v>
+        <v>1666.026386125673</v>
       </c>
       <c r="T13" t="n">
-        <v>1521.396324448161</v>
+        <v>1521.396324448162</v>
       </c>
       <c r="U13" t="n">
-        <v>1312.487468187753</v>
+        <v>1312.487468187754</v>
       </c>
       <c r="V13" t="n">
         <v>1138.036526675914</v>
       </c>
       <c r="W13" t="n">
-        <v>928.8529033330003</v>
+        <v>928.8529033330008</v>
       </c>
       <c r="X13" t="n">
-        <v>781.0968991290304</v>
+        <v>781.0968991290308</v>
       </c>
       <c r="Y13" t="n">
-        <v>640.5378666795476</v>
+        <v>640.5378666795481</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1043.510856230043</v>
+        <v>1043.510856230044</v>
       </c>
       <c r="C14" t="n">
-        <v>1043.510856230043</v>
+        <v>1043.510856230044</v>
       </c>
       <c r="D14" t="n">
-        <v>1043.510856230043</v>
+        <v>1043.510856230044</v>
       </c>
       <c r="E14" t="n">
-        <v>737.9561503258466</v>
+        <v>737.9561503258467</v>
       </c>
       <c r="F14" t="n">
-        <v>407.2037922302865</v>
+        <v>407.2037922302866</v>
       </c>
       <c r="G14" t="n">
-        <v>70.74900877868623</v>
+        <v>70.7490087786864</v>
       </c>
       <c r="H14" t="n">
-        <v>70.74900877868623</v>
+        <v>70.7490087786864</v>
       </c>
       <c r="I14" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289498</v>
       </c>
       <c r="J14" t="n">
         <v>101.1519812836721</v>
       </c>
       <c r="K14" t="n">
-        <v>233.5157259013835</v>
+        <v>259.1200572638231</v>
       </c>
       <c r="L14" t="n">
-        <v>811.2975876409583</v>
+        <v>460.2307487229691</v>
       </c>
       <c r="M14" t="n">
-        <v>1066.741419215097</v>
+        <v>1038.012610462544</v>
       </c>
       <c r="N14" t="n">
-        <v>1330.932407421241</v>
+        <v>1302.203598668689</v>
       </c>
       <c r="O14" t="n">
-        <v>1567.065204762434</v>
+        <v>1879.985460408264</v>
       </c>
       <c r="P14" t="n">
-        <v>2022.425618108814</v>
+        <v>2047.018338954671</v>
       </c>
       <c r="Q14" t="n">
-        <v>2309.879447798891</v>
+        <v>2334.472168644749</v>
       </c>
       <c r="R14" t="n">
-        <v>2334.472168644747</v>
+        <v>2334.472168644749</v>
       </c>
       <c r="S14" t="n">
-        <v>2334.472168644747</v>
+        <v>2334.472168644749</v>
       </c>
       <c r="T14" t="n">
-        <v>2334.472168644747</v>
+        <v>2334.472168644749</v>
       </c>
       <c r="U14" t="n">
-        <v>2161.045968213379</v>
+        <v>2334.472168644749</v>
       </c>
       <c r="V14" t="n">
-        <v>2161.045968213379</v>
+        <v>2225.550255024982</v>
       </c>
       <c r="W14" t="n">
-        <v>1888.510859637312</v>
+        <v>1953.015146448915</v>
       </c>
       <c r="X14" t="n">
-        <v>1595.27864807028</v>
+        <v>1659.782934881882</v>
       </c>
       <c r="Y14" t="n">
-        <v>1285.372862788515</v>
+        <v>1349.877149600118</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>911.928407359629</v>
+        <v>844.1309963387425</v>
       </c>
       <c r="C15" t="n">
-        <v>737.475378078502</v>
+        <v>669.6779670576155</v>
       </c>
       <c r="D15" t="n">
-        <v>588.5409684172507</v>
+        <v>520.7435573963643</v>
       </c>
       <c r="E15" t="n">
-        <v>429.3035134117953</v>
+        <v>441.7396490849562</v>
       </c>
       <c r="F15" t="n">
-        <v>282.7689554386803</v>
+        <v>295.2050911118412</v>
       </c>
       <c r="G15" t="n">
-        <v>145.5412832555495</v>
+        <v>157.9774189287104</v>
       </c>
       <c r="H15" t="n">
-        <v>46.68944337289494</v>
+        <v>59.12557904605583</v>
       </c>
       <c r="I15" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289498</v>
       </c>
       <c r="J15" t="n">
-        <v>60.30911088982451</v>
+        <v>185.1392358768293</v>
       </c>
       <c r="K15" t="n">
-        <v>423.5627013523598</v>
+        <v>548.3928263393645</v>
       </c>
       <c r="L15" t="n">
-        <v>973.4063782934353</v>
+        <v>731.1045614300156</v>
       </c>
       <c r="M15" t="n">
-        <v>1305.387753056776</v>
+        <v>963.677406497281</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.52475420662</v>
+        <v>1243.246613253084</v>
       </c>
       <c r="O15" t="n">
-        <v>2136.306615946195</v>
+        <v>1821.028474992659</v>
       </c>
       <c r="P15" t="n">
-        <v>2284.996269409651</v>
+        <v>2284.996269409653</v>
       </c>
       <c r="Q15" t="n">
-        <v>2334.472168644747</v>
+        <v>2334.472168644749</v>
       </c>
       <c r="R15" t="n">
-        <v>2334.472168644747</v>
+        <v>2326.629995268229</v>
       </c>
       <c r="S15" t="n">
-        <v>2188.975236143944</v>
+        <v>2261.366609461474</v>
       </c>
       <c r="T15" t="n">
-        <v>2073.080950575175</v>
+        <v>2065.238777198657</v>
       </c>
       <c r="U15" t="n">
-        <v>1925.18977066576</v>
+        <v>1837.114050595194</v>
       </c>
       <c r="V15" t="n">
-        <v>1690.037662434017</v>
+        <v>1601.961942363451</v>
       </c>
       <c r="W15" t="n">
-        <v>1435.800305705815</v>
+        <v>1347.72458563525</v>
       </c>
       <c r="X15" t="n">
-        <v>1227.948805500283</v>
+        <v>1139.873085429717</v>
       </c>
       <c r="Y15" t="n">
-        <v>1020.188506735329</v>
+        <v>1012.346333358811</v>
       </c>
     </row>
     <row r="16">
@@ -5428,25 +5428,25 @@
         <v>158.0071538326183</v>
       </c>
       <c r="H16" t="n">
-        <v>85.57913268839357</v>
+        <v>85.5791326883936</v>
       </c>
       <c r="I16" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289498</v>
       </c>
       <c r="J16" t="n">
         <v>120.2234082279187</v>
       </c>
       <c r="K16" t="n">
-        <v>320.311455508008</v>
+        <v>320.3114555080081</v>
       </c>
       <c r="L16" t="n">
-        <v>609.8904447105135</v>
+        <v>609.8904447105131</v>
       </c>
       <c r="M16" t="n">
-        <v>921.3253246538491</v>
+        <v>921.3253246538486</v>
       </c>
       <c r="N16" t="n">
-        <v>1232.659405364008</v>
+        <v>1232.659405364007</v>
       </c>
       <c r="O16" t="n">
         <v>1510.213519297866</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1338.709817470402</v>
+        <v>1338.709817470405</v>
       </c>
       <c r="C17" t="n">
-        <v>1130.214393918085</v>
+        <v>1130.214393918088</v>
       </c>
       <c r="D17" t="n">
-        <v>932.4157886994295</v>
+        <v>932.4157886994321</v>
       </c>
       <c r="E17" t="n">
-        <v>707.0946294892801</v>
+        <v>707.0946294892827</v>
       </c>
       <c r="F17" t="n">
-        <v>456.5758180877674</v>
+        <v>456.57581808777</v>
       </c>
       <c r="G17" t="n">
         <v>200.3545813302171</v>
       </c>
       <c r="H17" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289498</v>
       </c>
       <c r="I17" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289498</v>
       </c>
       <c r="J17" t="n">
         <v>101.1519812836721</v>
       </c>
       <c r="K17" t="n">
-        <v>233.5157259013835</v>
+        <v>554.4196843468367</v>
       </c>
       <c r="L17" t="n">
-        <v>811.2975876409583</v>
+        <v>987.4789330288011</v>
       </c>
       <c r="M17" t="n">
-        <v>1066.741419215097</v>
+        <v>1565.260794768376</v>
       </c>
       <c r="N17" t="n">
-        <v>1644.523280954671</v>
+        <v>1829.451782974521</v>
       </c>
       <c r="O17" t="n">
-        <v>1880.656078295865</v>
+        <v>2065.584580315714</v>
       </c>
       <c r="P17" t="n">
-        <v>2232.617458862119</v>
+        <v>2232.617458862121</v>
       </c>
       <c r="Q17" t="n">
-        <v>2309.879447798891</v>
+        <v>2309.879447798893</v>
       </c>
       <c r="R17" t="n">
-        <v>2334.472168644747</v>
+        <v>2334.472168644749</v>
       </c>
       <c r="S17" t="n">
-        <v>2334.472168644747</v>
+        <v>2334.472168644749</v>
       </c>
       <c r="T17" t="n">
-        <v>2281.88799975802</v>
+        <v>2334.472168644749</v>
       </c>
       <c r="U17" t="n">
-        <v>2188.695346020699</v>
+        <v>2241.279514907429</v>
       </c>
       <c r="V17" t="n">
-        <v>2018.099552065223</v>
+        <v>2199.815029489153</v>
       </c>
       <c r="W17" t="n">
-        <v>1825.797990183204</v>
+        <v>2007.513467607134</v>
       </c>
       <c r="X17" t="n">
-        <v>1612.799325310219</v>
+        <v>1794.514802734149</v>
       </c>
       <c r="Y17" t="n">
-        <v>1383.127086722502</v>
+        <v>1564.842564146432</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>683.6639029506459</v>
+        <v>851.6228944755564</v>
       </c>
       <c r="C18" t="n">
-        <v>509.2108736695189</v>
+        <v>677.1698651944295</v>
       </c>
       <c r="D18" t="n">
-        <v>480.5527374427177</v>
+        <v>528.2354555331782</v>
       </c>
       <c r="E18" t="n">
-        <v>321.3152824372622</v>
+        <v>368.9980005277227</v>
       </c>
       <c r="F18" t="n">
-        <v>321.3152824372622</v>
+        <v>222.4634425546077</v>
       </c>
       <c r="G18" t="n">
-        <v>184.0876102541314</v>
+        <v>85.23577037147689</v>
       </c>
       <c r="H18" t="n">
-        <v>85.23577037147686</v>
+        <v>85.23577037147689</v>
       </c>
       <c r="I18" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289498</v>
       </c>
       <c r="J18" t="n">
-        <v>60.30911088982451</v>
+        <v>185.1392358768293</v>
       </c>
       <c r="K18" t="n">
-        <v>423.5627013523598</v>
+        <v>548.3928263393645</v>
       </c>
       <c r="L18" t="n">
-        <v>748.1700473997798</v>
+        <v>731.1045614300156</v>
       </c>
       <c r="M18" t="n">
-        <v>980.7428924670453</v>
+        <v>1308.886423169591</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.52475420662</v>
+        <v>1562.023424319435</v>
       </c>
       <c r="O18" t="n">
-        <v>2136.306615946195</v>
+        <v>2136.306615946196</v>
       </c>
       <c r="P18" t="n">
-        <v>2284.996269409651</v>
+        <v>2284.996269409653</v>
       </c>
       <c r="Q18" t="n">
-        <v>2334.472168644747</v>
+        <v>2334.472168644749</v>
       </c>
       <c r="R18" t="n">
-        <v>2326.629995268227</v>
+        <v>2326.629995268229</v>
       </c>
       <c r="S18" t="n">
-        <v>2181.133062767424</v>
+        <v>2181.133062767426</v>
       </c>
       <c r="T18" t="n">
-        <v>1985.005230504608</v>
+        <v>2145.472323892704</v>
       </c>
       <c r="U18" t="n">
-        <v>1756.880503901145</v>
+        <v>1917.347597289242</v>
       </c>
       <c r="V18" t="n">
-        <v>1521.728395669402</v>
+        <v>1689.687387194313</v>
       </c>
       <c r="W18" t="n">
-        <v>1267.491038941201</v>
+        <v>1435.450030466111</v>
       </c>
       <c r="X18" t="n">
-        <v>1059.639538735668</v>
+        <v>1227.598530260578</v>
       </c>
       <c r="Y18" t="n">
-        <v>851.879239970714</v>
+        <v>1019.838231495625</v>
       </c>
     </row>
     <row r="19">
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>357.9221453653443</v>
+        <v>360.1256911952869</v>
       </c>
       <c r="C19" t="n">
-        <v>349.4530558255322</v>
+        <v>351.6566016554748</v>
       </c>
       <c r="D19" t="n">
-        <v>349.4530558255322</v>
+        <v>201.5399622431391</v>
       </c>
       <c r="E19" t="n">
         <v>201.5399622431391</v>
       </c>
       <c r="F19" t="n">
-        <v>54.65001474522874</v>
+        <v>54.65001474522875</v>
       </c>
       <c r="G19" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289498</v>
       </c>
       <c r="H19" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289498</v>
       </c>
       <c r="I19" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289498</v>
       </c>
       <c r="J19" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289498</v>
       </c>
       <c r="K19" t="n">
         <v>168.1405915381484</v>
       </c>
       <c r="L19" t="n">
-        <v>379.0826816258175</v>
+        <v>379.0826816258176</v>
       </c>
       <c r="M19" t="n">
-        <v>611.8806624543172</v>
+        <v>611.8806624543173</v>
       </c>
       <c r="N19" t="n">
-        <v>844.5778440496399</v>
+        <v>844.5778440496401</v>
       </c>
       <c r="O19" t="n">
         <v>1043.495058868663</v>
@@ -5698,25 +5698,25 @@
         <v>1208.306061780872</v>
       </c>
       <c r="S19" t="n">
-        <v>1164.455493404177</v>
+        <v>1003.988400016082</v>
       </c>
       <c r="T19" t="n">
-        <v>1100.058978420712</v>
+        <v>939.5918850326181</v>
       </c>
       <c r="U19" t="n">
-        <v>971.3836688543519</v>
+        <v>810.9165754662574</v>
       </c>
       <c r="V19" t="n">
-        <v>877.1662740365598</v>
+        <v>716.6991806484654</v>
       </c>
       <c r="W19" t="n">
-        <v>587.7491039995991</v>
+        <v>587.7491039995996</v>
       </c>
       <c r="X19" t="n">
-        <v>520.2266464896766</v>
+        <v>441.6325483928671</v>
       </c>
       <c r="Y19" t="n">
-        <v>379.1035168074892</v>
+        <v>381.3070626374318</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1185.044679513083</v>
+        <v>1338.709817470404</v>
       </c>
       <c r="C20" t="n">
-        <v>976.5492559607658</v>
+        <v>1130.214393918087</v>
       </c>
       <c r="D20" t="n">
-        <v>778.7506507421101</v>
+        <v>932.4157886994319</v>
       </c>
       <c r="E20" t="n">
-        <v>553.4294915319606</v>
+        <v>707.0946294892825</v>
       </c>
       <c r="F20" t="n">
-        <v>302.9106801304478</v>
+        <v>456.5758180877698</v>
       </c>
       <c r="G20" t="n">
-        <v>46.68944337289494</v>
+        <v>200.3545813302171</v>
       </c>
       <c r="H20" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289498</v>
       </c>
       <c r="I20" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289498</v>
       </c>
       <c r="J20" t="n">
         <v>101.1519812836721</v>
       </c>
       <c r="K20" t="n">
-        <v>233.5157259013835</v>
+        <v>233.5157259013837</v>
       </c>
       <c r="L20" t="n">
-        <v>434.6264173605294</v>
+        <v>668.8982119390332</v>
       </c>
       <c r="M20" t="n">
-        <v>690.0702489346677</v>
+        <v>1246.680073678609</v>
       </c>
       <c r="N20" t="n">
-        <v>1193.814718332226</v>
+        <v>1510.871061884753</v>
       </c>
       <c r="O20" t="n">
-        <v>1771.5965800718</v>
+        <v>1747.003859225946</v>
       </c>
       <c r="P20" t="n">
-        <v>2257.210179707975</v>
+        <v>2232.617458862121</v>
       </c>
       <c r="Q20" t="n">
-        <v>2334.472168644747</v>
+        <v>2309.879447798893</v>
       </c>
       <c r="R20" t="n">
-        <v>2334.472168644747</v>
+        <v>2334.472168644749</v>
       </c>
       <c r="S20" t="n">
-        <v>2334.472168644747</v>
+        <v>2334.472168644749</v>
       </c>
       <c r="T20" t="n">
-        <v>2281.887999758019</v>
+        <v>2334.472168644749</v>
       </c>
       <c r="U20" t="n">
-        <v>2188.695346020699</v>
+        <v>2241.279514907429</v>
       </c>
       <c r="V20" t="n">
-        <v>2018.099552065223</v>
+        <v>2070.683720951953</v>
       </c>
       <c r="W20" t="n">
-        <v>1825.797990183204</v>
+        <v>2007.513467607133</v>
       </c>
       <c r="X20" t="n">
-        <v>1612.799325310219</v>
+        <v>1794.514802734148</v>
       </c>
       <c r="Y20" t="n">
-        <v>1383.127086722502</v>
+        <v>1564.842564146431</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>851.6228944755563</v>
+        <v>851.9731697152624</v>
       </c>
       <c r="C21" t="n">
-        <v>677.1698651944293</v>
+        <v>677.5201404341354</v>
       </c>
       <c r="D21" t="n">
-        <v>528.2354555331781</v>
+        <v>528.5857307728842</v>
       </c>
       <c r="E21" t="n">
-        <v>368.9980005277226</v>
+        <v>369.3482757674287</v>
       </c>
       <c r="F21" t="n">
-        <v>222.4634425546076</v>
+        <v>321.3152824372622</v>
       </c>
       <c r="G21" t="n">
-        <v>85.23577037147686</v>
+        <v>184.0876102541314</v>
       </c>
       <c r="H21" t="n">
-        <v>85.23577037147686</v>
+        <v>85.23577037147689</v>
       </c>
       <c r="I21" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289498</v>
       </c>
       <c r="J21" t="n">
-        <v>185.1392358768292</v>
+        <v>185.1392358768293</v>
       </c>
       <c r="K21" t="n">
-        <v>522.9712310484349</v>
+        <v>286.5722416969118</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.81490798951</v>
+        <v>836.4159186379874</v>
       </c>
       <c r="M21" t="n">
-        <v>1305.387753056776</v>
+        <v>1150.563852458272</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.52475420662</v>
+        <v>1403.700853608117</v>
       </c>
       <c r="O21" t="n">
-        <v>2136.306615946195</v>
+        <v>1613.051960134168</v>
       </c>
       <c r="P21" t="n">
-        <v>2284.996269409651</v>
+        <v>2077.019754551162</v>
       </c>
       <c r="Q21" t="n">
-        <v>2334.472168644747</v>
+        <v>2334.472168644749</v>
       </c>
       <c r="R21" t="n">
-        <v>2334.472168644747</v>
+        <v>2334.472168644749</v>
       </c>
       <c r="S21" t="n">
-        <v>2334.472168644747</v>
+        <v>2188.975236143946</v>
       </c>
       <c r="T21" t="n">
-        <v>2152.964222029518</v>
+        <v>1992.847403881129</v>
       </c>
       <c r="U21" t="n">
-        <v>1924.839495426055</v>
+        <v>1764.722677277667</v>
       </c>
       <c r="V21" t="n">
-        <v>1689.687387194313</v>
+        <v>1690.037662434019</v>
       </c>
       <c r="W21" t="n">
-        <v>1435.450030466111</v>
+        <v>1435.800305705817</v>
       </c>
       <c r="X21" t="n">
-        <v>1227.598530260578</v>
+        <v>1227.948805500284</v>
       </c>
       <c r="Y21" t="n">
-        <v>1019.838231495624</v>
+        <v>1020.188506735331</v>
       </c>
     </row>
     <row r="22">
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>63.11910428504086</v>
+        <v>316.2984233547182</v>
       </c>
       <c r="C22" t="n">
-        <v>54.65001474522874</v>
+        <v>207.3115825835009</v>
       </c>
       <c r="D22" t="n">
-        <v>54.65001474522874</v>
+        <v>207.3115825835009</v>
       </c>
       <c r="E22" t="n">
-        <v>54.65001474522874</v>
+        <v>207.3115825835009</v>
       </c>
       <c r="F22" t="n">
-        <v>54.65001474522874</v>
+        <v>207.3115825835009</v>
       </c>
       <c r="G22" t="n">
-        <v>46.68944337289494</v>
+        <v>199.3510112111671</v>
       </c>
       <c r="H22" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289498</v>
       </c>
       <c r="I22" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289498</v>
       </c>
       <c r="J22" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289498</v>
       </c>
       <c r="K22" t="n">
         <v>168.1405915381484</v>
       </c>
       <c r="L22" t="n">
-        <v>379.0826816258175</v>
+        <v>379.0826816258176</v>
       </c>
       <c r="M22" t="n">
-        <v>611.8806624543172</v>
+        <v>611.8806624543173</v>
       </c>
       <c r="N22" t="n">
-        <v>844.5778440496399</v>
+        <v>844.5778440496401</v>
       </c>
       <c r="O22" t="n">
         <v>1043.495058868663</v>
@@ -5938,22 +5938,22 @@
         <v>1042.034127466798</v>
       </c>
       <c r="T22" t="n">
-        <v>977.637612483334</v>
+        <v>977.6376124833342</v>
       </c>
       <c r="U22" t="n">
-        <v>848.9623029169734</v>
+        <v>848.9623029169736</v>
       </c>
       <c r="V22" t="n">
-        <v>594.2778147110865</v>
+        <v>594.2778147110868</v>
       </c>
       <c r="W22" t="n">
-        <v>304.8606446741259</v>
+        <v>465.327738062221</v>
       </c>
       <c r="X22" t="n">
-        <v>144.6259614826211</v>
+        <v>397.8052805522984</v>
       </c>
       <c r="Y22" t="n">
-        <v>84.30047572718578</v>
+        <v>337.4797947968631</v>
       </c>
     </row>
     <row r="23">
@@ -5969,52 +5969,52 @@
         <v>1133.922873049188</v>
       </c>
       <c r="D23" t="n">
-        <v>936.1242678305325</v>
+        <v>936.1242678305327</v>
       </c>
       <c r="E23" t="n">
-        <v>710.803108620383</v>
+        <v>710.8031086203832</v>
       </c>
       <c r="F23" t="n">
-        <v>460.2842972188703</v>
+        <v>460.2842972188705</v>
       </c>
       <c r="G23" t="n">
         <v>204.0630604613176</v>
       </c>
       <c r="H23" t="n">
-        <v>50.39792250399552</v>
+        <v>50.39792250399555</v>
       </c>
       <c r="I23" t="n">
-        <v>50.39792250399552</v>
+        <v>50.39792250399555</v>
       </c>
       <c r="J23" t="n">
-        <v>104.8604604147726</v>
+        <v>104.8604604147727</v>
       </c>
       <c r="K23" t="n">
-        <v>237.2242050324841</v>
+        <v>318.0543265276069</v>
       </c>
       <c r="L23" t="n">
-        <v>438.33489649163</v>
+        <v>932.6496203916988</v>
       </c>
       <c r="M23" t="n">
-        <v>1062.009187478575</v>
+        <v>1188.093451965837</v>
       </c>
       <c r="N23" t="n">
-        <v>1326.200175684719</v>
+        <v>1452.284440171982</v>
       </c>
       <c r="O23" t="n">
-        <v>1939.32515247603</v>
+        <v>2065.409416963293</v>
       </c>
       <c r="P23" t="n">
-        <v>2207.849574663843</v>
+        <v>2232.4422955097</v>
       </c>
       <c r="Q23" t="n">
-        <v>2495.30340435392</v>
+        <v>2519.896125199777</v>
       </c>
       <c r="R23" t="n">
-        <v>2519.896125199776</v>
+        <v>2519.896125199777</v>
       </c>
       <c r="S23" t="n">
-        <v>2519.896125199776</v>
+        <v>2519.896125199777</v>
       </c>
       <c r="T23" t="n">
         <v>2467.311956313049</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>869.0878595056754</v>
+        <v>954.1832134893115</v>
       </c>
       <c r="C24" t="n">
-        <v>694.6348302245484</v>
+        <v>779.7301842081845</v>
       </c>
       <c r="D24" t="n">
-        <v>545.7004205632971</v>
+        <v>630.7957745469332</v>
       </c>
       <c r="E24" t="n">
-        <v>386.4629655578416</v>
+        <v>471.5583195414778</v>
       </c>
       <c r="F24" t="n">
-        <v>239.9284075847266</v>
+        <v>325.0237615683628</v>
       </c>
       <c r="G24" t="n">
-        <v>102.7007354015958</v>
+        <v>187.796089385232</v>
       </c>
       <c r="H24" t="n">
-        <v>88.94424950257743</v>
+        <v>88.94424950257745</v>
       </c>
       <c r="I24" t="n">
-        <v>50.39792250399552</v>
+        <v>50.39792250399555</v>
       </c>
       <c r="J24" t="n">
-        <v>188.8477150079298</v>
+        <v>188.8477150079299</v>
       </c>
       <c r="K24" t="n">
-        <v>552.1013054704651</v>
+        <v>290.2807208280124</v>
       </c>
       <c r="L24" t="n">
-        <v>1101.944982411541</v>
+        <v>472.9924559186634</v>
       </c>
       <c r="M24" t="n">
-        <v>1334.517827478806</v>
+        <v>1096.666746905608</v>
       </c>
       <c r="N24" t="n">
-        <v>1589.124810163144</v>
+        <v>1589.124810163145</v>
       </c>
       <c r="O24" t="n">
-        <v>1798.475916689196</v>
+        <v>1798.475916689197</v>
       </c>
       <c r="P24" t="n">
-        <v>2262.44371110619</v>
+        <v>2262.443711106191</v>
       </c>
       <c r="Q24" t="n">
-        <v>2519.896125199776</v>
+        <v>2519.896125199777</v>
       </c>
       <c r="R24" t="n">
-        <v>2512.053951823256</v>
+        <v>2519.896125199777</v>
       </c>
       <c r="S24" t="n">
-        <v>2366.557019322453</v>
+        <v>2374.399192698974</v>
       </c>
       <c r="T24" t="n">
-        <v>2170.429187059637</v>
+        <v>2178.271360436158</v>
       </c>
       <c r="U24" t="n">
-        <v>1942.304460456174</v>
+        <v>1950.146633832695</v>
       </c>
       <c r="V24" t="n">
-        <v>1707.152352224432</v>
+        <v>1714.994525600953</v>
       </c>
       <c r="W24" t="n">
-        <v>1452.91499549623</v>
+        <v>1460.757168872751</v>
       </c>
       <c r="X24" t="n">
-        <v>1245.063495290697</v>
+        <v>1252.905668667218</v>
       </c>
       <c r="Y24" t="n">
-        <v>1037.303196525743</v>
+        <v>1122.398550509379</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>214.7406769985346</v>
+        <v>602.895361811292</v>
       </c>
       <c r="C25" t="n">
-        <v>206.2715874587224</v>
+        <v>433.9591788833851</v>
       </c>
       <c r="D25" t="n">
-        <v>206.2715874587224</v>
+        <v>433.9591788833851</v>
       </c>
       <c r="E25" t="n">
-        <v>58.35849387632932</v>
+        <v>433.9591788833851</v>
       </c>
       <c r="F25" t="n">
-        <v>58.35849387632932</v>
+        <v>287.0692313854747</v>
       </c>
       <c r="G25" t="n">
-        <v>50.39792250399552</v>
+        <v>279.1086600131409</v>
       </c>
       <c r="H25" t="n">
-        <v>50.39792250399552</v>
+        <v>126.4470921748688</v>
       </c>
       <c r="I25" t="n">
-        <v>50.39792250399552</v>
+        <v>50.39792250399555</v>
       </c>
       <c r="J25" t="n">
-        <v>50.39792250399552</v>
+        <v>50.39792250399555</v>
       </c>
       <c r="K25" t="n">
         <v>171.849070669249</v>
@@ -6169,28 +6169,28 @@
         <v>1212.014540911973</v>
       </c>
       <c r="R25" t="n">
-        <v>1144.794042875405</v>
+        <v>1212.014540911973</v>
       </c>
       <c r="S25" t="n">
-        <v>1100.94347449871</v>
+        <v>1168.163972535277</v>
       </c>
       <c r="T25" t="n">
-        <v>1036.546959515245</v>
+        <v>1103.767457551813</v>
       </c>
       <c r="U25" t="n">
-        <v>907.8716499488847</v>
+        <v>975.0921479854525</v>
       </c>
       <c r="V25" t="n">
-        <v>813.6542551310927</v>
+        <v>880.8747531676604</v>
       </c>
       <c r="W25" t="n">
-        <v>684.7041784822269</v>
+        <v>751.9246765187946</v>
       </c>
       <c r="X25" t="n">
-        <v>456.7146275842096</v>
+        <v>684.4022190088721</v>
       </c>
       <c r="Y25" t="n">
-        <v>396.3891418287743</v>
+        <v>624.0767332534368</v>
       </c>
     </row>
     <row r="26">
@@ -6200,61 +6200,61 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1871.021482161256</v>
+        <v>1871.021482161255</v>
       </c>
       <c r="C26" t="n">
-        <v>1582.292511914892</v>
+        <v>1582.292511914891</v>
       </c>
       <c r="D26" t="n">
-        <v>1304.260360002189</v>
+        <v>1304.260360002188</v>
       </c>
       <c r="E26" t="n">
-        <v>998.7056540979922</v>
+        <v>998.7056540979911</v>
       </c>
       <c r="F26" t="n">
-        <v>667.9532960024321</v>
+        <v>667.953296002431</v>
       </c>
       <c r="G26" t="n">
         <v>331.4985125508312</v>
       </c>
       <c r="H26" t="n">
-        <v>97.59982789946167</v>
+        <v>97.59982789946172</v>
       </c>
       <c r="I26" t="n">
-        <v>73.5402624936704</v>
+        <v>73.54026249367041</v>
       </c>
       <c r="J26" t="n">
-        <v>128.0028004044475</v>
+        <v>295.4084494248006</v>
       </c>
       <c r="K26" t="n">
-        <v>278.598751595813</v>
+        <v>748.6761524879652</v>
       </c>
       <c r="L26" t="n">
-        <v>893.1940454599049</v>
+        <v>949.7868439471112</v>
       </c>
       <c r="M26" t="n">
-        <v>1593.656275191947</v>
+        <v>1650.249073679154</v>
       </c>
       <c r="N26" t="n">
-        <v>2290.820718565956</v>
+        <v>2347.413517053163</v>
       </c>
       <c r="O26" t="n">
-        <v>2903.945695357267</v>
+        <v>2960.538493844474</v>
       </c>
       <c r="P26" t="n">
-        <v>3389.559294993442</v>
+        <v>3364.966574147587</v>
       </c>
       <c r="Q26" t="n">
-        <v>3677.013124683519</v>
+        <v>3652.420403837665</v>
       </c>
       <c r="R26" t="n">
-        <v>3677.013124683519</v>
+        <v>3677.013124683521</v>
       </c>
       <c r="S26" t="n">
-        <v>3610.134137617859</v>
+        <v>3610.134137617861</v>
       </c>
       <c r="T26" t="n">
-        <v>3477.316422037084</v>
+        <v>3477.316422037085</v>
       </c>
       <c r="U26" t="n">
         <v>3303.890221605717</v>
@@ -6266,10 +6266,10 @@
         <v>2780.525772380127</v>
       </c>
       <c r="X26" t="n">
-        <v>2487.293560813095</v>
+        <v>2487.293560813094</v>
       </c>
       <c r="Y26" t="n">
-        <v>2177.387775531331</v>
+        <v>2177.38777553133</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>112.0865894922523</v>
       </c>
       <c r="I27" t="n">
-        <v>73.5402624936704</v>
+        <v>73.54026249367041</v>
       </c>
       <c r="J27" t="n">
         <v>211.9900549976047</v>
       </c>
       <c r="K27" t="n">
-        <v>313.4230608176871</v>
+        <v>313.4230608176872</v>
       </c>
       <c r="L27" t="n">
-        <v>675.9590896764209</v>
+        <v>821.7289618353825</v>
       </c>
       <c r="M27" t="n">
-        <v>1369.579947856186</v>
+        <v>1054.301806902648</v>
       </c>
       <c r="N27" t="n">
-        <v>1622.716949006031</v>
+        <v>1307.438808052492</v>
       </c>
       <c r="O27" t="n">
-        <v>2221.991751616044</v>
+        <v>1906.713610662506</v>
       </c>
       <c r="P27" t="n">
         <v>2370.681405079501</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>565.9737676641312</v>
+        <v>565.9737676641309</v>
       </c>
       <c r="C28" t="n">
-        <v>477.2711314302717</v>
+        <v>477.2711314302715</v>
       </c>
       <c r="D28" t="n">
-        <v>407.3880387119834</v>
+        <v>407.3880387119831</v>
       </c>
       <c r="E28" t="n">
-        <v>339.7084918236378</v>
+        <v>339.7084918236374</v>
       </c>
       <c r="F28" t="n">
-        <v>273.0520910197748</v>
+        <v>273.0520910197744</v>
       </c>
       <c r="G28" t="n">
-        <v>184.8579729533936</v>
+        <v>184.8579729533932</v>
       </c>
       <c r="H28" t="n">
         <v>112.429951809169</v>
       </c>
       <c r="I28" t="n">
-        <v>73.5402624936704</v>
+        <v>73.54026249367041</v>
       </c>
       <c r="J28" t="n">
         <v>147.0742273486941</v>
       </c>
       <c r="K28" t="n">
-        <v>347.1622746287835</v>
+        <v>347.1622746287833</v>
       </c>
       <c r="L28" t="n">
-        <v>636.7412638312885</v>
+        <v>636.7412638312883</v>
       </c>
       <c r="M28" t="n">
-        <v>948.1761437746241</v>
+        <v>948.1761437746239</v>
       </c>
       <c r="N28" t="n">
         <v>1259.510224484783</v>
@@ -6400,16 +6400,16 @@
         <v>1537.064338418641</v>
       </c>
       <c r="P28" t="n">
-        <v>1762.388596593011</v>
+        <v>1762.388596593012</v>
       </c>
       <c r="Q28" t="n">
-        <v>1859.149139560522</v>
+        <v>1859.149139560523</v>
       </c>
       <c r="R28" t="n">
         <v>1816.961320317191</v>
       </c>
       <c r="S28" t="n">
-        <v>1692.877205246448</v>
+        <v>1692.877205246449</v>
       </c>
       <c r="T28" t="n">
         <v>1548.247143568937</v>
@@ -6421,13 +6421,13 @@
         <v>1164.887345796689</v>
       </c>
       <c r="W28" t="n">
-        <v>955.7037224537762</v>
+        <v>955.703722453776</v>
       </c>
       <c r="X28" t="n">
-        <v>807.9477182498061</v>
+        <v>807.947718249806</v>
       </c>
       <c r="Y28" t="n">
-        <v>667.3886858003234</v>
+        <v>667.3886858003233</v>
       </c>
     </row>
     <row r="29">
@@ -6443,55 +6443,55 @@
         <v>1582.292511914892</v>
       </c>
       <c r="D29" t="n">
-        <v>1304.260360002189</v>
+        <v>1304.260360002188</v>
       </c>
       <c r="E29" t="n">
-        <v>998.705654097992</v>
+        <v>998.7056540979918</v>
       </c>
       <c r="F29" t="n">
-        <v>667.9532960024319</v>
+        <v>667.9532960024317</v>
       </c>
       <c r="G29" t="n">
-        <v>331.4985125508316</v>
+        <v>331.4985125508315</v>
       </c>
       <c r="H29" t="n">
-        <v>97.59982789946167</v>
+        <v>97.59982789946164</v>
       </c>
       <c r="I29" t="n">
         <v>73.5402624936704</v>
       </c>
       <c r="J29" t="n">
-        <v>128.0028004044475</v>
+        <v>295.4084494248006</v>
       </c>
       <c r="K29" t="n">
-        <v>581.270503467612</v>
+        <v>748.6761524879652</v>
       </c>
       <c r="L29" t="n">
-        <v>868.6013246140493</v>
+        <v>1363.271446352057</v>
       </c>
       <c r="M29" t="n">
-        <v>1569.063554346092</v>
+        <v>2063.733676084099</v>
       </c>
       <c r="N29" t="n">
-        <v>2266.227997720101</v>
+        <v>2760.898119458108</v>
       </c>
       <c r="O29" t="n">
-        <v>2879.352974511412</v>
+        <v>2997.030916799301</v>
       </c>
       <c r="P29" t="n">
-        <v>3364.966574147586</v>
+        <v>3389.559294993443</v>
       </c>
       <c r="Q29" t="n">
-        <v>3652.420403837664</v>
+        <v>3677.01312468352</v>
       </c>
       <c r="R29" t="n">
         <v>3677.01312468352</v>
       </c>
       <c r="S29" t="n">
-        <v>3610.134137617859</v>
+        <v>3610.13413761786</v>
       </c>
       <c r="T29" t="n">
-        <v>3477.316422037084</v>
+        <v>3477.316422037085</v>
       </c>
       <c r="U29" t="n">
         <v>3303.890221605717</v>
@@ -6506,7 +6506,7 @@
         <v>2487.293560813095</v>
       </c>
       <c r="Y29" t="n">
-        <v>2177.387775531331</v>
+        <v>2177.38777553133</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>73.5402624936704</v>
       </c>
       <c r="J30" t="n">
-        <v>211.9900549976047</v>
+        <v>87.15993001059999</v>
       </c>
       <c r="K30" t="n">
-        <v>313.4230608176871</v>
+        <v>450.4135204731352</v>
       </c>
       <c r="L30" t="n">
-        <v>863.2667377587627</v>
+        <v>633.1252555637863</v>
       </c>
       <c r="M30" t="n">
-        <v>1556.887595938528</v>
+        <v>969.6765523864926</v>
       </c>
       <c r="N30" t="n">
-        <v>1810.024597088372</v>
+        <v>1697.362504136455</v>
       </c>
       <c r="O30" t="n">
-        <v>2409.299399698386</v>
+        <v>1906.713610662506</v>
       </c>
       <c r="P30" t="n">
-        <v>2578.657919937991</v>
+        <v>2370.681405079501</v>
       </c>
       <c r="Q30" t="n">
         <v>2628.133819173087</v>
@@ -6619,16 +6619,16 @@
         <v>73.5402624936704</v>
       </c>
       <c r="J31" t="n">
-        <v>147.0742273486941</v>
+        <v>147.0742273486942</v>
       </c>
       <c r="K31" t="n">
-        <v>347.1622746287835</v>
+        <v>347.1622746287836</v>
       </c>
       <c r="L31" t="n">
-        <v>636.7412638312885</v>
+        <v>636.7412638312883</v>
       </c>
       <c r="M31" t="n">
-        <v>948.1761437746241</v>
+        <v>948.1761437746239</v>
       </c>
       <c r="N31" t="n">
         <v>1259.510224484783</v>
@@ -6683,16 +6683,16 @@
         <v>1304.260360002188</v>
       </c>
       <c r="E32" t="n">
-        <v>998.7056540979916</v>
+        <v>998.7056540979918</v>
       </c>
       <c r="F32" t="n">
-        <v>667.9532960024314</v>
+        <v>667.9532960024317</v>
       </c>
       <c r="G32" t="n">
-        <v>331.4985125508312</v>
+        <v>331.4985125508315</v>
       </c>
       <c r="H32" t="n">
-        <v>97.59982789946169</v>
+        <v>97.59982789946166</v>
       </c>
       <c r="I32" t="n">
         <v>73.5402624936704</v>
@@ -6701,25 +6701,25 @@
         <v>295.4084494248006</v>
       </c>
       <c r="K32" t="n">
-        <v>723.6171497537177</v>
+        <v>630.9982102000752</v>
       </c>
       <c r="L32" t="n">
-        <v>1338.21244361781</v>
+        <v>1245.593504064167</v>
       </c>
       <c r="M32" t="n">
-        <v>1593.656275191948</v>
+        <v>1946.05573379621</v>
       </c>
       <c r="N32" t="n">
-        <v>2290.820718565957</v>
+        <v>2643.220177170218</v>
       </c>
       <c r="O32" t="n">
-        <v>2903.945695357268</v>
+        <v>2879.352974511412</v>
       </c>
       <c r="P32" t="n">
-        <v>3389.559294993443</v>
+        <v>3364.966574147586</v>
       </c>
       <c r="Q32" t="n">
-        <v>3677.01312468352</v>
+        <v>3652.420403837664</v>
       </c>
       <c r="R32" t="n">
         <v>3677.01312468352</v>
@@ -6777,25 +6777,25 @@
         <v>73.5402624936704</v>
       </c>
       <c r="J33" t="n">
-        <v>87.15993001059996</v>
+        <v>211.9900549976047</v>
       </c>
       <c r="K33" t="n">
-        <v>188.5929358306824</v>
+        <v>575.24364546014</v>
       </c>
       <c r="L33" t="n">
-        <v>738.4366127717578</v>
+        <v>757.955380550791</v>
       </c>
       <c r="M33" t="n">
-        <v>1262.278321761139</v>
+        <v>1369.579947856186</v>
       </c>
       <c r="N33" t="n">
-        <v>1515.415322910983</v>
+        <v>1622.71694900603</v>
       </c>
       <c r="O33" t="n">
-        <v>2114.690125520997</v>
+        <v>2221.991751616044</v>
       </c>
       <c r="P33" t="n">
-        <v>2578.657919937991</v>
+        <v>2370.681405079501</v>
       </c>
       <c r="Q33" t="n">
         <v>2628.133819173087</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>565.9737676641309</v>
+        <v>565.9737676641314</v>
       </c>
       <c r="C34" t="n">
-        <v>477.2711314302714</v>
+        <v>477.2711314302719</v>
       </c>
       <c r="D34" t="n">
-        <v>407.3880387119831</v>
+        <v>407.3880387119835</v>
       </c>
       <c r="E34" t="n">
-        <v>339.7084918236374</v>
+        <v>339.7084918236379</v>
       </c>
       <c r="F34" t="n">
-        <v>273.0520910197745</v>
+        <v>273.0520910197749</v>
       </c>
       <c r="G34" t="n">
-        <v>184.8579729533934</v>
+        <v>184.8579729533938</v>
       </c>
       <c r="H34" t="n">
-        <v>112.4299518091686</v>
+        <v>112.429951809169</v>
       </c>
       <c r="I34" t="n">
         <v>73.5402624936704</v>
       </c>
       <c r="J34" t="n">
-        <v>147.0742273486941</v>
+        <v>147.0742273486942</v>
       </c>
       <c r="K34" t="n">
-        <v>347.1622746287834</v>
+        <v>347.1622746287835</v>
       </c>
       <c r="L34" t="n">
-        <v>636.7412638312884</v>
+        <v>636.7412638312885</v>
       </c>
       <c r="M34" t="n">
-        <v>948.1761437746239</v>
+        <v>948.1761437746241</v>
       </c>
       <c r="N34" t="n">
         <v>1259.510224484783</v>
@@ -6874,10 +6874,10 @@
         <v>1537.064338418641</v>
       </c>
       <c r="P34" t="n">
-        <v>1762.388596593011</v>
+        <v>1762.388596593012</v>
       </c>
       <c r="Q34" t="n">
-        <v>1859.149139560522</v>
+        <v>1859.149139560523</v>
       </c>
       <c r="R34" t="n">
         <v>1816.961320317191</v>
@@ -6892,16 +6892,16 @@
         <v>1339.338287308529</v>
       </c>
       <c r="V34" t="n">
-        <v>1164.887345796689</v>
+        <v>1164.88734579669</v>
       </c>
       <c r="W34" t="n">
-        <v>955.703722453776</v>
+        <v>955.7037224537765</v>
       </c>
       <c r="X34" t="n">
-        <v>807.9477182498058</v>
+        <v>807.9477182498063</v>
       </c>
       <c r="Y34" t="n">
-        <v>667.3886858003232</v>
+        <v>667.3886858003236</v>
       </c>
     </row>
     <row r="35">
@@ -6911,46 +6911,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1426.088700803847</v>
+        <v>1426.088700803848</v>
       </c>
       <c r="C35" t="n">
-        <v>1204.238717623144</v>
+        <v>1204.238717623145</v>
       </c>
       <c r="D35" t="n">
-        <v>993.0855527761011</v>
+        <v>993.0855527761017</v>
       </c>
       <c r="E35" t="n">
-        <v>754.4098339375646</v>
+        <v>754.4098339375654</v>
       </c>
       <c r="F35" t="n">
-        <v>490.5364629076648</v>
+        <v>490.5364629076657</v>
       </c>
       <c r="G35" t="n">
-        <v>220.9606665217257</v>
+        <v>220.9606665217256</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94096893601659</v>
+        <v>53.94096893601658</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94096893601659</v>
+        <v>53.94096893601658</v>
       </c>
       <c r="J35" t="n">
-        <v>275.8091558671467</v>
+        <v>108.4035068467937</v>
       </c>
       <c r="K35" t="n">
-        <v>408.1729004848581</v>
+        <v>561.6712099099584</v>
       </c>
       <c r="L35" t="n">
-        <v>1022.76819434895</v>
+        <v>1085.209221146895</v>
       </c>
       <c r="M35" t="n">
-        <v>1399.064511081383</v>
+        <v>1340.653052721033</v>
       </c>
       <c r="N35" t="n">
-        <v>1663.255499287528</v>
+        <v>1604.844040927178</v>
       </c>
       <c r="O35" t="n">
-        <v>1899.388296628721</v>
+        <v>2217.969017718488</v>
       </c>
       <c r="P35" t="n">
         <v>2385.001896264896</v>
@@ -6974,13 +6974,13 @@
         <v>2340.612151336144</v>
       </c>
       <c r="W35" t="n">
-        <v>2134.956029825737</v>
+        <v>2134.956029825738</v>
       </c>
       <c r="X35" t="n">
-        <v>1908.602805324365</v>
+        <v>1908.602805324366</v>
       </c>
       <c r="Y35" t="n">
-        <v>1665.576007108261</v>
+        <v>1665.576007108262</v>
       </c>
     </row>
     <row r="36">
@@ -7005,31 +7005,31 @@
         <v>328.5668080003838</v>
       </c>
       <c r="G36" t="n">
-        <v>191.3391358172531</v>
+        <v>191.339135817253</v>
       </c>
       <c r="H36" t="n">
-        <v>92.48729593459851</v>
+        <v>92.48729593459848</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94096893601659</v>
+        <v>53.94096893601658</v>
       </c>
       <c r="J36" t="n">
-        <v>67.56063645294616</v>
+        <v>192.3907614399509</v>
       </c>
       <c r="K36" t="n">
-        <v>168.9936422730286</v>
+        <v>293.8237672600334</v>
       </c>
       <c r="L36" t="n">
-        <v>718.8373192141041</v>
+        <v>476.5355023506844</v>
       </c>
       <c r="M36" t="n">
-        <v>951.4101642813696</v>
+        <v>709.10834741795</v>
       </c>
       <c r="N36" t="n">
-        <v>1618.929654864575</v>
+        <v>1376.627838001155</v>
       </c>
       <c r="O36" t="n">
-        <v>2202.392458058391</v>
+        <v>1887.114317104853</v>
       </c>
       <c r="P36" t="n">
         <v>2351.082111521847</v>
@@ -7069,46 +7069,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>106.4334486588142</v>
+        <v>352.4893974565099</v>
       </c>
       <c r="C37" t="n">
-        <v>84.60979949061505</v>
+        <v>183.553214528603</v>
       </c>
       <c r="D37" t="n">
-        <v>81.60569383798709</v>
+        <v>81.60569383798683</v>
       </c>
       <c r="E37" t="n">
-        <v>80.80513401530175</v>
+        <v>80.80513401530158</v>
       </c>
       <c r="F37" t="n">
-        <v>80.80513401530175</v>
+        <v>80.80513401530158</v>
       </c>
       <c r="G37" t="n">
-        <v>59.49000301458095</v>
+        <v>59.49000301458085</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94096893601659</v>
+        <v>53.94096893601658</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94096893601659</v>
+        <v>53.94096893601658</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94096893601659</v>
+        <v>53.94096893601658</v>
       </c>
       <c r="K37" t="n">
-        <v>175.39211710127</v>
+        <v>175.3921171012701</v>
       </c>
       <c r="L37" t="n">
-        <v>386.3342071889391</v>
+        <v>386.3342071889392</v>
       </c>
       <c r="M37" t="n">
-        <v>619.1321880174388</v>
+        <v>619.1321880174389</v>
       </c>
       <c r="N37" t="n">
-        <v>851.8293696127615</v>
+        <v>851.8293696127616</v>
       </c>
       <c r="O37" t="n">
-        <v>1050.746584431784</v>
+        <v>1050.746584431785</v>
       </c>
       <c r="P37" t="n">
         <v>1197.433943491319</v>
@@ -7120,25 +7120,25 @@
         <v>1215.557587343994</v>
       </c>
       <c r="S37" t="n">
-        <v>1158.352459338911</v>
+        <v>1158.352459338912</v>
       </c>
       <c r="T37" t="n">
-        <v>1080.60138472706</v>
+        <v>1080.601384727061</v>
       </c>
       <c r="U37" t="n">
-        <v>938.5715155323123</v>
+        <v>938.571515532313</v>
       </c>
       <c r="V37" t="n">
-        <v>732.0561460481464</v>
+        <v>830.999561086134</v>
       </c>
       <c r="W37" t="n">
-        <v>589.7515097708936</v>
+        <v>688.6949248088813</v>
       </c>
       <c r="X37" t="n">
-        <v>361.7619588728762</v>
+        <v>460.705373910864</v>
       </c>
       <c r="Y37" t="n">
-        <v>288.0819134890539</v>
+        <v>387.0253285270417</v>
       </c>
     </row>
     <row r="38">
@@ -7151,55 +7151,55 @@
         <v>1426.088700803848</v>
       </c>
       <c r="C38" t="n">
-        <v>1204.238717623144</v>
+        <v>1204.238717623145</v>
       </c>
       <c r="D38" t="n">
-        <v>993.0855527761016</v>
+        <v>993.0855527761023</v>
       </c>
       <c r="E38" t="n">
-        <v>754.4098339375652</v>
+        <v>754.4098339375662</v>
       </c>
       <c r="F38" t="n">
-        <v>490.5364629076654</v>
+        <v>490.5364629076664</v>
       </c>
       <c r="G38" t="n">
-        <v>220.9606665217257</v>
+        <v>220.9606665217256</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94096893601659</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94096893601659</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="J38" t="n">
         <v>108.4035068467937</v>
       </c>
       <c r="K38" t="n">
-        <v>561.6712099099582</v>
+        <v>240.7672514645053</v>
       </c>
       <c r="L38" t="n">
-        <v>1176.26650377405</v>
+        <v>441.8779429236513</v>
       </c>
       <c r="M38" t="n">
-        <v>1431.710335348188</v>
+        <v>1109.397433506857</v>
       </c>
       <c r="N38" t="n">
-        <v>1815.035881680484</v>
+        <v>1604.844040927178</v>
       </c>
       <c r="O38" t="n">
-        <v>2428.160858471795</v>
+        <v>2217.969017718489</v>
       </c>
       <c r="P38" t="n">
-        <v>2595.193737018202</v>
+        <v>2385.001896264896</v>
       </c>
       <c r="Q38" t="n">
-        <v>2672.455725954973</v>
+        <v>2672.455725954974</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.048446800829</v>
+        <v>2697.04844680083</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.048446800829</v>
+        <v>2697.04844680083</v>
       </c>
       <c r="T38" t="n">
         <v>2631.109718285715</v>
@@ -7248,28 +7248,28 @@
         <v>92.48729593459851</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94096893601659</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="J39" t="n">
-        <v>67.56063645294616</v>
+        <v>192.3907614399509</v>
       </c>
       <c r="K39" t="n">
-        <v>430.8142269154814</v>
+        <v>293.8237672600334</v>
       </c>
       <c r="L39" t="n">
-        <v>980.6579038565569</v>
+        <v>843.667444201109</v>
       </c>
       <c r="M39" t="n">
-        <v>1213.230748923822</v>
+        <v>1511.186934784314</v>
       </c>
       <c r="N39" t="n">
-        <v>1880.750239507028</v>
+        <v>1764.323935934159</v>
       </c>
       <c r="O39" t="n">
-        <v>2090.10134603308</v>
+        <v>2095.090831963344</v>
       </c>
       <c r="P39" t="n">
-        <v>2351.082111521847</v>
+        <v>2559.058626380338</v>
       </c>
       <c r="Q39" t="n">
         <v>2608.534525615434</v>
@@ -7306,46 +7306,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>352.4893974565088</v>
+        <v>352.4893974565099</v>
       </c>
       <c r="C40" t="n">
-        <v>330.6657482883096</v>
+        <v>330.6657482883109</v>
       </c>
       <c r="D40" t="n">
-        <v>327.6616426356816</v>
+        <v>327.661642635683</v>
       </c>
       <c r="E40" t="n">
-        <v>227.9176677750095</v>
+        <v>227.6950815132119</v>
       </c>
       <c r="F40" t="n">
-        <v>227.9176677750095</v>
+        <v>80.80513401530158</v>
       </c>
       <c r="G40" t="n">
-        <v>59.49000301458095</v>
+        <v>59.49000301458086</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94096893601659</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94096893601659</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94096893601659</v>
+        <v>53.9409689360166</v>
       </c>
       <c r="K40" t="n">
-        <v>175.39211710127</v>
+        <v>175.3921171012701</v>
       </c>
       <c r="L40" t="n">
-        <v>386.3342071889391</v>
+        <v>386.3342071889392</v>
       </c>
       <c r="M40" t="n">
-        <v>619.1321880174388</v>
+        <v>619.1321880174389</v>
       </c>
       <c r="N40" t="n">
-        <v>851.8293696127615</v>
+        <v>851.8293696127616</v>
       </c>
       <c r="O40" t="n">
-        <v>1050.746584431784</v>
+        <v>1050.746584431785</v>
       </c>
       <c r="P40" t="n">
         <v>1197.433943491319</v>
@@ -7357,25 +7357,25 @@
         <v>1215.557587343994</v>
       </c>
       <c r="S40" t="n">
-        <v>1158.352459338911</v>
+        <v>1158.352459338912</v>
       </c>
       <c r="T40" t="n">
-        <v>1080.60138472706</v>
+        <v>1080.601384727061</v>
       </c>
       <c r="U40" t="n">
-        <v>938.5715155323123</v>
+        <v>938.571515532313</v>
       </c>
       <c r="V40" t="n">
-        <v>830.9995610861332</v>
+        <v>830.999561086134</v>
       </c>
       <c r="W40" t="n">
-        <v>688.6949248088804</v>
+        <v>688.6949248088813</v>
       </c>
       <c r="X40" t="n">
-        <v>607.8179076705708</v>
+        <v>460.705373910864</v>
       </c>
       <c r="Y40" t="n">
-        <v>534.1378622867485</v>
+        <v>387.0253285270417</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1426.088700803848</v>
+        <v>1426.088700803849</v>
       </c>
       <c r="C41" t="n">
-        <v>1204.238717623144</v>
+        <v>1204.238717623145</v>
       </c>
       <c r="D41" t="n">
-        <v>993.0855527761014</v>
+        <v>993.0855527761022</v>
       </c>
       <c r="E41" t="n">
-        <v>754.4098339375651</v>
+        <v>754.4098339375658</v>
       </c>
       <c r="F41" t="n">
-        <v>490.5364629076655</v>
+        <v>490.5364629076662</v>
       </c>
       <c r="G41" t="n">
-        <v>220.9606665217257</v>
+        <v>220.9606665217256</v>
       </c>
       <c r="H41" t="n">
         <v>53.9409689360166</v>
@@ -7409,22 +7409,22 @@
         <v>53.9409689360166</v>
       </c>
       <c r="J41" t="n">
-        <v>275.8091558671467</v>
+        <v>275.8091558671468</v>
       </c>
       <c r="K41" t="n">
-        <v>408.1729004848581</v>
+        <v>729.0768589303113</v>
       </c>
       <c r="L41" t="n">
-        <v>609.2835919440041</v>
+        <v>930.1875503894573</v>
       </c>
       <c r="M41" t="n">
-        <v>1276.803082527209</v>
+        <v>1185.631381963596</v>
       </c>
       <c r="N41" t="n">
-        <v>1540.994070733354</v>
+        <v>1853.150872546801</v>
       </c>
       <c r="O41" t="n">
-        <v>2134.172858227883</v>
+        <v>2452.753579317651</v>
       </c>
       <c r="P41" t="n">
         <v>2619.786457864058</v>
@@ -7442,19 +7442,19 @@
         <v>2631.109718285715</v>
       </c>
       <c r="U41" t="n">
-        <v>2524.562504920007</v>
+        <v>2524.562504920008</v>
       </c>
       <c r="V41" t="n">
-        <v>2340.612151336144</v>
+        <v>2340.612151336145</v>
       </c>
       <c r="W41" t="n">
-        <v>2134.956029825738</v>
+        <v>2134.956029825739</v>
       </c>
       <c r="X41" t="n">
-        <v>1908.602805324366</v>
+        <v>1908.602805324367</v>
       </c>
       <c r="Y41" t="n">
-        <v>1665.576007108262</v>
+        <v>1665.576007108263</v>
       </c>
     </row>
     <row r="42">
@@ -7488,22 +7488,22 @@
         <v>53.9409689360166</v>
       </c>
       <c r="J42" t="n">
-        <v>67.56063645294616</v>
+        <v>192.3907614399509</v>
       </c>
       <c r="K42" t="n">
-        <v>168.9936422730286</v>
+        <v>555.6443519024862</v>
       </c>
       <c r="L42" t="n">
-        <v>351.7053773636795</v>
+        <v>738.3560869931372</v>
       </c>
       <c r="M42" t="n">
-        <v>1019.224867946885</v>
+        <v>1034.702513344995</v>
       </c>
       <c r="N42" t="n">
-        <v>1686.74435853009</v>
+        <v>1287.839514494839</v>
       </c>
       <c r="O42" t="n">
-        <v>2202.392458058391</v>
+        <v>1887.114317104853</v>
       </c>
       <c r="P42" t="n">
         <v>2351.082111521847</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>106.4334486588142</v>
+        <v>377.1805652788391</v>
       </c>
       <c r="C43" t="n">
-        <v>84.60979949061506</v>
+        <v>355.3569161106401</v>
       </c>
       <c r="D43" t="n">
-        <v>81.6056938379871</v>
+        <v>205.2402766983044</v>
       </c>
       <c r="E43" t="n">
-        <v>80.80513401530176</v>
+        <v>204.4397168756191</v>
       </c>
       <c r="F43" t="n">
-        <v>80.80513401530176</v>
+        <v>204.4397168756191</v>
       </c>
       <c r="G43" t="n">
-        <v>59.49000301458096</v>
+        <v>59.49000301458086</v>
       </c>
       <c r="H43" t="n">
         <v>53.9409689360166</v>
@@ -7570,19 +7570,19 @@
         <v>53.9409689360166</v>
       </c>
       <c r="K43" t="n">
-        <v>175.39211710127</v>
+        <v>175.3921171012701</v>
       </c>
       <c r="L43" t="n">
-        <v>386.3342071889391</v>
+        <v>386.3342071889392</v>
       </c>
       <c r="M43" t="n">
-        <v>619.1321880174388</v>
+        <v>619.1321880174389</v>
       </c>
       <c r="N43" t="n">
-        <v>851.8293696127615</v>
+        <v>851.8293696127616</v>
       </c>
       <c r="O43" t="n">
-        <v>1050.746584431784</v>
+        <v>1050.746584431785</v>
       </c>
       <c r="P43" t="n">
         <v>1197.433943491319</v>
@@ -7597,22 +7597,22 @@
         <v>1035.931093401533</v>
       </c>
       <c r="T43" t="n">
-        <v>958.1800187896814</v>
+        <v>958.180018789682</v>
       </c>
       <c r="U43" t="n">
-        <v>816.1501495949337</v>
+        <v>816.1501495949344</v>
       </c>
       <c r="V43" t="n">
-        <v>708.5781951487546</v>
+        <v>708.5781951487554</v>
       </c>
       <c r="W43" t="n">
-        <v>419.161025111794</v>
+        <v>566.2735588715027</v>
       </c>
       <c r="X43" t="n">
-        <v>338.2840079734844</v>
+        <v>485.3965417331932</v>
       </c>
       <c r="Y43" t="n">
-        <v>264.6039625896621</v>
+        <v>411.716496349371</v>
       </c>
     </row>
     <row r="44">
@@ -7625,73 +7625,73 @@
         <v>1426.088700803848</v>
       </c>
       <c r="C44" t="n">
-        <v>1204.238717623145</v>
+        <v>1204.238717623144</v>
       </c>
       <c r="D44" t="n">
-        <v>993.0855527761017</v>
+        <v>993.0855527761014</v>
       </c>
       <c r="E44" t="n">
-        <v>754.4098339375653</v>
+        <v>754.4098339375651</v>
       </c>
       <c r="F44" t="n">
-        <v>490.5364629076657</v>
+        <v>490.5364629076653</v>
       </c>
       <c r="G44" t="n">
-        <v>220.9606665217248</v>
+        <v>220.9606665217257</v>
       </c>
       <c r="H44" t="n">
-        <v>53.9409689360166</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="I44" t="n">
-        <v>53.9409689360166</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="J44" t="n">
-        <v>275.8091558671467</v>
+        <v>108.4035068467937</v>
       </c>
       <c r="K44" t="n">
-        <v>408.1729004848581</v>
+        <v>240.7672514645053</v>
       </c>
       <c r="L44" t="n">
-        <v>1022.76819434895</v>
+        <v>855.3625453285972</v>
       </c>
       <c r="M44" t="n">
-        <v>1278.212025923088</v>
+        <v>1522.882035911803</v>
       </c>
       <c r="N44" t="n">
-        <v>1945.731516506294</v>
+        <v>1787.073024117947</v>
       </c>
       <c r="O44" t="n">
-        <v>2217.969017718489</v>
+        <v>2400.198000909258</v>
       </c>
       <c r="P44" t="n">
-        <v>2385.001896264896</v>
+        <v>2567.230879455665</v>
       </c>
       <c r="Q44" t="n">
-        <v>2672.455725954974</v>
+        <v>2697.048446800829</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.04844680083</v>
+        <v>2697.048446800829</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.04844680083</v>
+        <v>2697.048446800829</v>
       </c>
       <c r="T44" t="n">
         <v>2631.109718285715</v>
       </c>
       <c r="U44" t="n">
-        <v>2524.562504920008</v>
+        <v>2524.562504920007</v>
       </c>
       <c r="V44" t="n">
-        <v>2340.612151336145</v>
+        <v>2340.612151336144</v>
       </c>
       <c r="W44" t="n">
-        <v>2134.956029825738</v>
+        <v>2134.956029825737</v>
       </c>
       <c r="X44" t="n">
-        <v>1908.602805324366</v>
+        <v>1908.602805324365</v>
       </c>
       <c r="Y44" t="n">
-        <v>1665.576007108263</v>
+        <v>1665.576007108262</v>
       </c>
     </row>
     <row r="45">
@@ -7719,31 +7719,31 @@
         <v>191.3391358172531</v>
       </c>
       <c r="H45" t="n">
-        <v>92.48729593459851</v>
+        <v>92.48729593459849</v>
       </c>
       <c r="I45" t="n">
-        <v>53.9409689360166</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="J45" t="n">
-        <v>67.56063645294616</v>
+        <v>67.56063645294618</v>
       </c>
       <c r="K45" t="n">
-        <v>168.9936422730286</v>
+        <v>168.9936422730287</v>
       </c>
       <c r="L45" t="n">
-        <v>718.8373192141041</v>
+        <v>575.15953762028</v>
       </c>
       <c r="M45" t="n">
-        <v>1386.35680979731</v>
+        <v>1242.679028203485</v>
       </c>
       <c r="N45" t="n">
-        <v>1993.04135153234</v>
+        <v>1495.81602935333</v>
       </c>
       <c r="O45" t="n">
-        <v>2202.392458058391</v>
+        <v>2095.090831963344</v>
       </c>
       <c r="P45" t="n">
-        <v>2351.082111521847</v>
+        <v>2559.058626380338</v>
       </c>
       <c r="Q45" t="n">
         <v>2608.534525615434</v>
@@ -7780,46 +7780,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.6399931540821</v>
+        <v>400.6585161782298</v>
       </c>
       <c r="C46" t="n">
-        <v>89.81634398588301</v>
+        <v>378.8348670100306</v>
       </c>
       <c r="D46" t="n">
-        <v>86.81223833325505</v>
+        <v>228.7182275976949</v>
       </c>
       <c r="E46" t="n">
-        <v>86.01167851056971</v>
+        <v>227.9176677750095</v>
       </c>
       <c r="F46" t="n">
-        <v>86.01167851056971</v>
+        <v>227.9176677750095</v>
       </c>
       <c r="G46" t="n">
-        <v>64.69654750984891</v>
+        <v>206.6025367742887</v>
       </c>
       <c r="H46" t="n">
-        <v>59.14751343128455</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="I46" t="n">
-        <v>59.14751343128455</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="J46" t="n">
-        <v>53.9409689360166</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="K46" t="n">
-        <v>175.39211710127</v>
+        <v>175.3921171012701</v>
       </c>
       <c r="L46" t="n">
-        <v>386.3342071889391</v>
+        <v>386.3342071889392</v>
       </c>
       <c r="M46" t="n">
-        <v>619.1321880174388</v>
+        <v>619.1321880174389</v>
       </c>
       <c r="N46" t="n">
-        <v>851.8293696127615</v>
+        <v>851.8293696127616</v>
       </c>
       <c r="O46" t="n">
-        <v>1050.746584431784</v>
+        <v>1050.746584431785</v>
       </c>
       <c r="P46" t="n">
         <v>1197.433943491319</v>
@@ -7828,28 +7828,28 @@
         <v>1215.557587343994</v>
       </c>
       <c r="R46" t="n">
-        <v>1121.820716801275</v>
+        <v>1215.557587343994</v>
       </c>
       <c r="S46" t="n">
-        <v>1064.615588796192</v>
+        <v>1158.352459338911</v>
       </c>
       <c r="T46" t="n">
-        <v>986.8645141843411</v>
+        <v>1080.60138472706</v>
       </c>
       <c r="U46" t="n">
-        <v>697.7221112298857</v>
+        <v>938.5715155323126</v>
       </c>
       <c r="V46" t="n">
-        <v>590.1501567837066</v>
+        <v>830.9995610861334</v>
       </c>
       <c r="W46" t="n">
-        <v>447.8455205064537</v>
+        <v>688.6949248088806</v>
       </c>
       <c r="X46" t="n">
-        <v>366.9685033681442</v>
+        <v>607.817907670571</v>
       </c>
       <c r="Y46" t="n">
-        <v>293.2884579843218</v>
+        <v>435.1944472487617</v>
       </c>
     </row>
   </sheetData>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>202.8020871047449</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>380.4759295761909</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>325.5939698640774</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>316.7584581145764</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>185.8607904309278</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>40.87528770545092</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8775,19 +8775,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>348.6959764366765</v>
       </c>
       <c r="N12" t="n">
-        <v>327.9241016057885</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>372.1522779934578</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>36.95379166545175</v>
+        <v>178.2569070921732</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,28 +8927,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>25.86296097216106</v>
       </c>
       <c r="L14" t="n">
-        <v>380.4759295761908</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>325.5939698640777</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>345.100065048871</v>
       </c>
       <c r="P14" t="n">
-        <v>291.239934141386</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>40.87528770545089</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,25 +9003,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>100.4126562586617</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>26.69919758177591</v>
       </c>
       <c r="O15" t="n">
-        <v>372.1522779934578</v>
+        <v>372.1522779934582</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9164,22 +9164,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>380.4759295761908</v>
+        <v>234.2914719422408</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>325.5939698640777</v>
       </c>
       <c r="N17" t="n">
-        <v>316.7584581145761</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>186.7964666867147</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9240,22 +9240,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>143.3288999563324</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>348.6959764366766</v>
       </c>
       <c r="N18" t="n">
-        <v>327.9241016057885</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>372.1522779934578</v>
+        <v>368.6182677784945</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9404,16 +9404,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>236.6381763419228</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>325.5939698640777</v>
       </c>
       <c r="N20" t="n">
-        <v>241.9732133246599</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>345.1000650488706</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>40.87528770545092</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>238.7868579308315</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>82.39907954850446</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>372.1522779934578</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9638,13 +9638,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>81.6465873688108</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>371.9499590028347</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9653,13 +9653,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>102.5167107488944</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>40.87528770545089</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,16 +9717,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>395.0519655754337</v>
       </c>
       <c r="N24" t="n">
-        <v>1.484829832821873</v>
+        <v>241.7384465734266</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>18.41637027641826</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9890,13 +9890,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>239.7931330875824</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>40.87528770545092</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,10 +9957,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>181.6407007758413</v>
+        <v>328.8829958859034</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10109,13 +10109,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>87.09104008817309</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10124,16 +10124,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>227.773231967408</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>40.87528770545089</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>105.02873914691</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>20.87764320823123</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,19 +10349,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>298.8332885971776</v>
+        <v>205.2788041995586</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>40.87528770545092</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,16 +10425,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>294.2109736587024</v>
+        <v>382.8805275132619</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,10 +10443,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,25 +10583,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>325.6841613917072</v>
       </c>
       <c r="M35" t="n">
-        <v>122.0732173316113</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10662,25 +10662,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>418.5681711448091</v>
+        <v>418.568171144809</v>
       </c>
       <c r="O36" t="n">
-        <v>377.8906026947119</v>
+        <v>304.1771440178246</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10823,16 +10823,16 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>416.238039403098</v>
       </c>
       <c r="N38" t="n">
-        <v>120.3379375011624</v>
+        <v>233.5915345597749</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>439.3400459756969</v>
       </c>
       <c r="N39" t="n">
-        <v>418.5681711448091</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>122.6422116193264</v>
       </c>
       <c r="P39" t="n">
-        <v>113.4253656821327</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,28 +11060,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>416.2380394030981</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>407.4025276535968</v>
       </c>
       <c r="O41" t="n">
-        <v>360.6525153064003</v>
+        <v>367.1413226562192</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>40.87528770545092</v>
+        <v>40.87528770545089</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,25 +11136,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>439.3400459756969</v>
+        <v>64.41775887332528</v>
       </c>
       <c r="N42" t="n">
-        <v>418.5681711448092</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>309.3909020224741</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11303,22 +11303,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>416.2380394030979</v>
       </c>
       <c r="N44" t="n">
-        <v>407.4025276535968</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>36.4693978494976</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>53.08644283676014</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>40.87528770545089</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,22 +11379,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>225.7112729864651</v>
       </c>
       <c r="M45" t="n">
-        <v>439.3400459756969</v>
+        <v>439.3400459756968</v>
       </c>
       <c r="N45" t="n">
-        <v>357.118727863824</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>249.6612561586059</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>122.6351192732272</v>
       </c>
       <c r="H11" t="n">
         <v>231.5596978048558</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>23.81896975173336</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>66.21019719500377</v>
       </c>
       <c r="T11" t="n">
         <v>131.4895384249674</v>
@@ -23318,13 +23318,13 @@
         <v>248.321047243028</v>
       </c>
       <c r="W11" t="n">
-        <v>269.8097574903061</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>306.8067274289467</v>
       </c>
     </row>
     <row r="12">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>63.85924394348635</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>285.8416805439006</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.21019719500379</v>
+        <v>66.21019719500377</v>
       </c>
       <c r="T14" t="n">
         <v>131.4895384249674</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>171.6919384270541</v>
       </c>
       <c r="V14" t="n">
-        <v>248.321047243028</v>
+        <v>140.4883527594585</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>179.8983226496879</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23783,13 +23783,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>52.05832719786048</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>127.839995451828</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>27.76983607194174</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>152.1284865777489</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>52.05832719786048</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>127.8399954518279</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>802492.9883280514</v>
+        <v>802492.9883280518</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>894088.7708714913</v>
+        <v>894088.7708714915</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>926765.1429974252</v>
+        <v>926765.142997425</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>926765.1429974252</v>
+        <v>926765.142997425</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>926765.1429974252</v>
+        <v>926765.142997425</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>593975.3455698526</v>
       </c>
       <c r="C2" t="n">
-        <v>593975.3455698525</v>
+        <v>593975.3455698526</v>
       </c>
       <c r="D2" t="n">
         <v>593975.3455698526</v>
       </c>
       <c r="E2" t="n">
+        <v>520086.0901280831</v>
+      </c>
+      <c r="F2" t="n">
         <v>520086.0901280836</v>
       </c>
-      <c r="F2" t="n">
-        <v>520086.0901280837</v>
-      </c>
       <c r="G2" t="n">
-        <v>584873.3509514919</v>
+        <v>584873.3509514915</v>
       </c>
       <c r="H2" t="n">
-        <v>584873.3509514915</v>
+        <v>584873.3509514914</v>
       </c>
       <c r="I2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="J2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="K2" t="n">
         <v>595255.2831516056</v>
       </c>
       <c r="L2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="M2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="N2" t="n">
         <v>595255.2831516057</v>
       </c>
       <c r="O2" t="n">
+        <v>595255.2831516059</v>
+      </c>
+      <c r="P2" t="n">
         <v>595255.283151606</v>
-      </c>
-      <c r="P2" t="n">
-        <v>595255.2831516057</v>
       </c>
     </row>
     <row r="3">
@@ -26372,31 +26372,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>793631.6724150431</v>
+        <v>793631.6724150432</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>63544.96898168553</v>
+        <v>63544.96898168555</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>12327.03098776748</v>
+        <v>12327.03098776742</v>
       </c>
       <c r="J3" t="n">
-        <v>75688.18005323113</v>
+        <v>75688.18005323116</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>63544.96898168553</v>
+        <v>63544.96898168554</v>
       </c>
       <c r="M3" t="n">
-        <v>137355.3289379699</v>
+        <v>137355.32893797</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26427,13 +26427,13 @@
         <v>154325.0722680947</v>
       </c>
       <c r="F4" t="n">
-        <v>154325.0722680947</v>
+        <v>154325.0722680948</v>
       </c>
       <c r="G4" t="n">
-        <v>205135.3026775317</v>
+        <v>205135.3026775318</v>
       </c>
       <c r="H4" t="n">
-        <v>205135.3026775317</v>
+        <v>205135.3026775318</v>
       </c>
       <c r="I4" t="n">
         <v>210892.2080352272</v>
@@ -26445,13 +26445,13 @@
         <v>200854.7344410866</v>
       </c>
       <c r="L4" t="n">
-        <v>200854.7344410866</v>
+        <v>200854.7344410865</v>
       </c>
       <c r="M4" t="n">
         <v>208992.6487667406</v>
       </c>
       <c r="N4" t="n">
-        <v>208992.6487667406</v>
+        <v>208992.6487667407</v>
       </c>
       <c r="O4" t="n">
         <v>208992.6487667407</v>
@@ -26476,22 +26476,22 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>57243.92344591296</v>
+        <v>57243.92344591298</v>
       </c>
       <c r="F5" t="n">
-        <v>57243.92344591296</v>
+        <v>57243.92344591299</v>
       </c>
       <c r="G5" t="n">
-        <v>63921.62594256461</v>
+        <v>63921.62594256464</v>
       </c>
       <c r="H5" t="n">
-        <v>63921.62594256461</v>
+        <v>63921.62594256464</v>
       </c>
       <c r="I5" t="n">
-        <v>66740.07008220105</v>
+        <v>66740.07008220107</v>
       </c>
       <c r="J5" t="n">
-        <v>77650.54597770231</v>
+        <v>77650.54597770232</v>
       </c>
       <c r="K5" t="n">
         <v>77650.54597770231</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>118698.4955740322</v>
+        <v>118694.0819961641</v>
       </c>
       <c r="C6" t="n">
-        <v>118698.495574032</v>
+        <v>118694.081996164</v>
       </c>
       <c r="D6" t="n">
-        <v>118698.4955740322</v>
+        <v>118694.0819961641</v>
       </c>
       <c r="E6" t="n">
-        <v>-485114.5780009672</v>
+        <v>-485373.782114842</v>
       </c>
       <c r="F6" t="n">
-        <v>308517.0944140761</v>
+        <v>308257.8903002016</v>
       </c>
       <c r="G6" t="n">
-        <v>252271.45334971</v>
+        <v>252235.6535835023</v>
       </c>
       <c r="H6" t="n">
-        <v>315816.4223313952</v>
+        <v>315780.6225651877</v>
       </c>
       <c r="I6" t="n">
-        <v>305295.9740464093</v>
+        <v>305295.9740464095</v>
       </c>
       <c r="J6" t="n">
-        <v>241061.8226795857</v>
+        <v>241061.8226795854</v>
       </c>
       <c r="K6" t="n">
         <v>316750.0027328168</v>
       </c>
       <c r="L6" t="n">
-        <v>253205.0337511307</v>
+        <v>253205.033751131</v>
       </c>
       <c r="M6" t="n">
-        <v>180585.9975050229</v>
+        <v>180585.9975050227</v>
       </c>
       <c r="N6" t="n">
         <v>317941.3264429929</v>
       </c>
       <c r="O6" t="n">
+        <v>317941.326442993</v>
+      </c>
+      <c r="P6" t="n">
         <v>317941.3264429931</v>
-      </c>
-      <c r="P6" t="n">
-        <v>317941.3264429929</v>
       </c>
     </row>
   </sheetData>
@@ -26698,31 +26698,31 @@
         <v>79.43121122710691</v>
       </c>
       <c r="G2" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="H2" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="I2" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="J2" t="n">
-        <v>79.43121122710694</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="K2" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="L2" t="n">
         <v>79.43121122710694</v>
       </c>
       <c r="M2" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="N2" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="O2" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="P2" t="n">
         <v>145.6414084221107</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973009</v>
       </c>
       <c r="F3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973009</v>
       </c>
       <c r="G3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973009</v>
       </c>
       <c r="H3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973009</v>
       </c>
       <c r="I3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973009</v>
       </c>
       <c r="J3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973009</v>
       </c>
       <c r="K3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973009</v>
       </c>
       <c r="L3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973009</v>
       </c>
       <c r="M3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973009</v>
       </c>
       <c r="N3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973009</v>
       </c>
       <c r="O3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973009</v>
       </c>
       <c r="P3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973009</v>
       </c>
     </row>
     <row r="4">
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>583.6180421611867</v>
+        <v>583.6180421611871</v>
       </c>
       <c r="F4" t="n">
-        <v>583.6180421611867</v>
+        <v>583.6180421611872</v>
       </c>
       <c r="G4" t="n">
-        <v>583.6180421611867</v>
+        <v>583.6180421611872</v>
       </c>
       <c r="H4" t="n">
-        <v>583.6180421611867</v>
+        <v>583.6180421611872</v>
       </c>
       <c r="I4" t="n">
-        <v>629.974031299944</v>
+        <v>629.9740312999443</v>
       </c>
       <c r="J4" t="n">
-        <v>919.2532811708799</v>
+        <v>919.2532811708802</v>
       </c>
       <c r="K4" t="n">
         <v>919.25328117088</v>
@@ -26820,16 +26820,16 @@
         <v>919.25328117088</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2621117002074</v>
+        <v>674.2621117002072</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2621117002074</v>
+        <v>674.2621117002075</v>
       </c>
       <c r="O4" t="n">
         <v>674.2621117002075</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2621117002075</v>
+        <v>674.2621117002074</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="M2" t="n">
-        <v>66.21019719500374</v>
+        <v>66.21019719500383</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>583.6180421611867</v>
+        <v>583.6180421611871</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>46.35598913875731</v>
+        <v>46.35598913875708</v>
       </c>
       <c r="J4" t="n">
-        <v>289.2792498709358</v>
+        <v>289.2792498709359</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>338.6268726905141</v>
+        <v>338.6268726905143</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>583.6180421611867</v>
+        <v>583.6180421611871</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28166,7 +28166,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>59.35568526792473</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -28184,44 +28184,44 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>38.16086372859608</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>7.763751642754499</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
         <v>79.43121122710691</v>
       </c>
-      <c r="I12" t="n">
-        <v>38.1608637285961</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>7.763751642754514</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
@@ -28229,7 +28229,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>59.35568526792349</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>59.35568526792461</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -28412,7 +28412,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>38.1608637285961</v>
+        <v>25.84908941216684</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.763751642754514</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
         <v>79.43121122710691</v>
-      </c>
-      <c r="U15" t="n">
-        <v>79.43121122710691</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28512,7 +28512,7 @@
         <v>79.43121122710691</v>
       </c>
       <c r="L16" t="n">
-        <v>79.43121122710753</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="M16" t="n">
         <v>79.43121122710691</v>
@@ -28521,7 +28521,7 @@
         <v>79.43121122710691</v>
       </c>
       <c r="O16" t="n">
-        <v>79.43121122710691</v>
+        <v>79.43121122710741</v>
       </c>
       <c r="P16" t="n">
         <v>79.43121122710691</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="C17" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="D17" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="E17" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="F17" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="G17" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="H17" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="I17" t="n">
         <v>103.2501809788403</v>
@@ -28615,22 +28615,22 @@
         <v>145.6414084221107</v>
       </c>
       <c r="T17" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="U17" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="V17" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="W17" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="X17" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="Y17" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
     </row>
     <row r="18">
@@ -28646,19 +28646,19 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>119.0735107001055</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>97.863321483828</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -28694,13 +28694,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>7.416979155445603</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -28719,22 +28719,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="C19" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="H19" t="n">
         <v>151.1349521598894</v>
@@ -28743,7 +28743,7 @@
         <v>117.9320036494506</v>
       </c>
       <c r="J19" t="n">
-        <v>5.154479050315274</v>
+        <v>5.15447905031526</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>121.1971522780048</v>
       </c>
       <c r="S19" t="n">
-        <v>158.8624224542138</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="U19" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="V19" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="X19" t="n">
-        <v>158.8624224542138</v>
+        <v>81.05426533837198</v>
       </c>
       <c r="Y19" t="n">
-        <v>78.8727549667293</v>
+        <v>158.8624224542139</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="C20" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="D20" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="E20" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="F20" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="G20" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="H20" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="I20" t="n">
         <v>103.2501809788403</v>
@@ -28852,22 +28852,22 @@
         <v>145.6414084221107</v>
       </c>
       <c r="T20" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="U20" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="V20" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="W20" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="X20" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="Y20" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
     </row>
     <row r="21">
@@ -28889,13 +28889,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>97.51654899651911</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>97.863321483828</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -28925,19 +28925,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7.763751642754514</v>
+        <v>7.763751642754499</v>
       </c>
       <c r="S21" t="n">
-        <v>144.0419631757947</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>14.47368679111148</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="C22" t="n">
-        <v>158.8624224542138</v>
+        <v>59.34984873512263</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -28971,16 +28971,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="H22" t="n">
-        <v>151.1349521598894</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>117.9320036494506</v>
       </c>
       <c r="J22" t="n">
-        <v>5.154479050315274</v>
+        <v>5.15447905031526</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29007,25 +29007,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="T22" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="U22" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="X22" t="n">
-        <v>67.07731902944741</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="Y22" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="C23" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="D23" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="E23" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="F23" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="G23" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="H23" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="I23" t="n">
         <v>103.2501809788403</v>
@@ -29089,22 +29089,22 @@
         <v>145.6414084221107</v>
       </c>
       <c r="T23" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="U23" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="V23" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="W23" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="X23" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="Y23" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
     </row>
     <row r="24">
@@ -29132,7 +29132,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>84.24440044379979</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>7.763751642754499</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -29183,7 +29183,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>76.48064880104405</v>
       </c>
     </row>
     <row r="25">
@@ -29193,31 +29193,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="C25" t="n">
-        <v>158.8624224542138</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="H25" t="n">
-        <v>151.1349521598894</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>117.9320036494506</v>
+        <v>42.64332567528604</v>
       </c>
       <c r="J25" t="n">
-        <v>5.154479050315274</v>
+        <v>5.15447905031526</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.6488592218027</v>
+        <v>121.1971522780048</v>
       </c>
       <c r="S25" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="T25" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="U25" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="V25" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="W25" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="Y25" t="n">
-        <v>158.8624224542138</v>
+        <v>158.8624224542139</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="C26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="D26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="E26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="F26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="G26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="H26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="I26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="T26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="U26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="V26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="W26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="X26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="Y26" t="n">
-        <v>79.43121122710694</v>
+        <v>79.4312112271069</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="C28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="D28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="E28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="F28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="G28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="H28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="I28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="J28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="K28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="L28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="M28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="N28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="O28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="P28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="R28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="S28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="T28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="U28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="V28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="W28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="X28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.4312112271069</v>
       </c>
       <c r="Y28" t="n">
-        <v>79.43121122710694</v>
+        <v>79.4312112271069</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="C29" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="D29" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="E29" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="F29" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="G29" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="H29" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="I29" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="T29" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="U29" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="V29" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="W29" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="X29" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="Y29" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710696</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="C31" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="D31" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="E31" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="F31" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="G31" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="H31" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="I31" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="J31" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="K31" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="L31" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710664</v>
       </c>
       <c r="M31" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="N31" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="O31" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="P31" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="R31" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="S31" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="T31" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="U31" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="V31" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="W31" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="X31" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="Y31" t="n">
-        <v>79.43121122710694</v>
+        <v>79.43121122710696</v>
       </c>
     </row>
     <row r="32">
@@ -29815,7 +29815,7 @@
         <v>79.43121122710694</v>
       </c>
       <c r="Y32" t="n">
-        <v>79.4312112271067</v>
+        <v>79.43121122710694</v>
       </c>
     </row>
     <row r="33">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="C35" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="D35" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="E35" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="F35" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="G35" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="H35" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="I35" t="n">
         <v>103.2501809788403</v>
@@ -30037,22 +30037,22 @@
         <v>145.6414084221107</v>
       </c>
       <c r="T35" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="U35" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="V35" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="W35" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="X35" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
     </row>
     <row r="36">
@@ -30141,31 +30141,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="C37" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>145.6414084221107</v>
+        <v>47.68742753450238</v>
       </c>
       <c r="E37" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="H37" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="I37" t="n">
         <v>117.9320036494506</v>
       </c>
       <c r="J37" t="n">
-        <v>5.154479050315274</v>
+        <v>5.15447905031526</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30192,25 +30192,25 @@
         <v>121.1971522780048</v>
       </c>
       <c r="S37" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="T37" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="U37" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="V37" t="n">
-        <v>47.68742753450374</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="W37" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="C38" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="D38" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="E38" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="F38" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="G38" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="H38" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="I38" t="n">
         <v>103.2501809788403</v>
@@ -30274,22 +30274,22 @@
         <v>145.6414084221107</v>
       </c>
       <c r="T38" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="U38" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="V38" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="W38" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="X38" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
     </row>
     <row r="39">
@@ -30378,31 +30378,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="C40" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="D40" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="E40" t="n">
-        <v>47.6874275345038</v>
+        <v>47.46706713532282</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="H40" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="I40" t="n">
         <v>117.9320036494506</v>
       </c>
       <c r="J40" t="n">
-        <v>5.154479050315274</v>
+        <v>5.15447905031526</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30429,25 +30429,25 @@
         <v>121.1971522780048</v>
       </c>
       <c r="S40" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="T40" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="U40" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="V40" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="W40" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="X40" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="C41" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="D41" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="E41" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="F41" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="G41" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="H41" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="I41" t="n">
         <v>103.2501809788403</v>
@@ -30511,22 +30511,22 @@
         <v>145.6414084221107</v>
       </c>
       <c r="T41" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="U41" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="V41" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="W41" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="X41" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
     </row>
     <row r="42">
@@ -30615,31 +30615,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>23.24317139039789</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="C43" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="D43" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>145.6414084221107</v>
+        <v>23.24317139039638</v>
       </c>
       <c r="H43" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="I43" t="n">
         <v>117.9320036494506</v>
       </c>
       <c r="J43" t="n">
-        <v>5.154479050315274</v>
+        <v>5.15447905031526</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30666,25 +30666,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="T43" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="U43" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="V43" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="X43" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
       <c r="Y43" t="n">
-        <v>145.6414084221107</v>
+        <v>145.6414084221108</v>
       </c>
     </row>
     <row r="44">
@@ -30852,13 +30852,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="C46" t="n">
         <v>145.6414084221107</v>
       </c>
       <c r="D46" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>145.6414084221107</v>
@@ -30870,13 +30870,13 @@
         <v>145.6414084221107</v>
       </c>
       <c r="H46" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>117.9320036494506</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>5.15447905031526</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30900,7 +30900,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>28.39765044071308</v>
+        <v>121.1971522780048</v>
       </c>
       <c r="S46" t="n">
         <v>145.6414084221107</v>
@@ -30909,7 +30909,7 @@
         <v>145.6414084221107</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="V46" t="n">
         <v>145.6414084221107</v>
@@ -30921,7 +30921,7 @@
         <v>145.6414084221107</v>
       </c>
       <c r="Y46" t="n">
-        <v>145.6414084221107</v>
+        <v>47.6874275345036</v>
       </c>
     </row>
   </sheetData>
@@ -31762,37 +31762,37 @@
         <v>236.0585690830268</v>
       </c>
       <c r="K11" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840831</v>
       </c>
       <c r="L11" t="n">
         <v>438.9085275549832</v>
       </c>
       <c r="M11" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243822</v>
       </c>
       <c r="N11" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432016</v>
       </c>
       <c r="O11" t="n">
-        <v>468.6161885340029</v>
+        <v>468.616188534003</v>
       </c>
       <c r="P11" t="n">
         <v>399.9530750950748</v>
       </c>
       <c r="Q11" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418956</v>
       </c>
       <c r="R11" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S11" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413467</v>
       </c>
       <c r="T11" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755137</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,13 +31829,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.488121701911175</v>
+        <v>1.488121701911176</v>
       </c>
       <c r="H12" t="n">
         <v>14.37212275266846</v>
       </c>
       <c r="I12" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281899</v>
       </c>
       <c r="J12" t="n">
         <v>140.5948665827572</v>
@@ -31856,22 +31856,22 @@
         <v>354.0620086121734</v>
       </c>
       <c r="P12" t="n">
-        <v>284.1659765693366</v>
+        <v>284.1659765693367</v>
       </c>
       <c r="Q12" t="n">
         <v>189.9574298790476</v>
       </c>
       <c r="R12" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988863</v>
       </c>
       <c r="S12" t="n">
-        <v>27.64120792804308</v>
+        <v>27.64120792804309</v>
       </c>
       <c r="T12" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633201</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678791</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,13 +31911,13 @@
         <v>1.247591245634477</v>
       </c>
       <c r="H13" t="n">
-        <v>11.09222034755017</v>
+        <v>11.09222034755018</v>
       </c>
       <c r="I13" t="n">
         <v>37.51847127780773</v>
       </c>
       <c r="J13" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635752</v>
       </c>
       <c r="K13" t="n">
         <v>144.9474192655328</v>
@@ -31926,7 +31926,7 @@
         <v>185.4827930100567</v>
       </c>
       <c r="M13" t="n">
-        <v>195.5655986225025</v>
+        <v>195.5655986225026</v>
       </c>
       <c r="N13" t="n">
         <v>190.9154857978651</v>
@@ -31941,13 +31941,13 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R13" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916474</v>
       </c>
       <c r="S13" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T13" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438219</v>
       </c>
       <c r="U13" t="n">
         <v>0.06805043158006245</v>
@@ -31999,37 +31999,37 @@
         <v>236.0585690830268</v>
       </c>
       <c r="K14" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840831</v>
       </c>
       <c r="L14" t="n">
         <v>438.9085275549832</v>
       </c>
       <c r="M14" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243822</v>
       </c>
       <c r="N14" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432016</v>
       </c>
       <c r="O14" t="n">
-        <v>468.6161885340029</v>
+        <v>468.616188534003</v>
       </c>
       <c r="P14" t="n">
         <v>399.9530750950748</v>
       </c>
       <c r="Q14" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418956</v>
       </c>
       <c r="R14" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S14" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413467</v>
       </c>
       <c r="T14" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755137</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,13 +32066,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.488121701911175</v>
+        <v>1.488121701911176</v>
       </c>
       <c r="H15" t="n">
         <v>14.37212275266846</v>
       </c>
       <c r="I15" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281899</v>
       </c>
       <c r="J15" t="n">
         <v>140.5948665827572</v>
@@ -32093,22 +32093,22 @@
         <v>354.0620086121734</v>
       </c>
       <c r="P15" t="n">
-        <v>284.1659765693366</v>
+        <v>284.1659765693367</v>
       </c>
       <c r="Q15" t="n">
         <v>189.9574298790476</v>
       </c>
       <c r="R15" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988863</v>
       </c>
       <c r="S15" t="n">
-        <v>27.64120792804308</v>
+        <v>27.64120792804309</v>
       </c>
       <c r="T15" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633201</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678791</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,13 +32148,13 @@
         <v>1.247591245634477</v>
       </c>
       <c r="H16" t="n">
-        <v>11.09222034755017</v>
+        <v>11.09222034755018</v>
       </c>
       <c r="I16" t="n">
         <v>37.51847127780773</v>
       </c>
       <c r="J16" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635752</v>
       </c>
       <c r="K16" t="n">
         <v>144.9474192655328</v>
@@ -32163,7 +32163,7 @@
         <v>185.4827930100567</v>
       </c>
       <c r="M16" t="n">
-        <v>195.5655986225025</v>
+        <v>195.5655986225026</v>
       </c>
       <c r="N16" t="n">
         <v>190.9154857978651</v>
@@ -32178,13 +32178,13 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R16" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916474</v>
       </c>
       <c r="S16" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T16" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438219</v>
       </c>
       <c r="U16" t="n">
         <v>0.06805043158006245</v>
@@ -32236,37 +32236,37 @@
         <v>236.0585690830268</v>
       </c>
       <c r="K17" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840831</v>
       </c>
       <c r="L17" t="n">
         <v>438.9085275549832</v>
       </c>
       <c r="M17" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243822</v>
       </c>
       <c r="N17" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432016</v>
       </c>
       <c r="O17" t="n">
-        <v>468.6161885340029</v>
+        <v>468.616188534003</v>
       </c>
       <c r="P17" t="n">
         <v>399.9530750950748</v>
       </c>
       <c r="Q17" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418956</v>
       </c>
       <c r="R17" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S17" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413467</v>
       </c>
       <c r="T17" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755137</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,13 +32303,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.488121701911175</v>
+        <v>1.488121701911176</v>
       </c>
       <c r="H18" t="n">
         <v>14.37212275266846</v>
       </c>
       <c r="I18" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281899</v>
       </c>
       <c r="J18" t="n">
         <v>140.5948665827572</v>
@@ -32330,22 +32330,22 @@
         <v>354.0620086121734</v>
       </c>
       <c r="P18" t="n">
-        <v>284.1659765693366</v>
+        <v>284.1659765693367</v>
       </c>
       <c r="Q18" t="n">
         <v>189.9574298790476</v>
       </c>
       <c r="R18" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988863</v>
       </c>
       <c r="S18" t="n">
-        <v>27.64120792804308</v>
+        <v>27.64120792804309</v>
       </c>
       <c r="T18" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633201</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678791</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,13 +32385,13 @@
         <v>1.247591245634477</v>
       </c>
       <c r="H19" t="n">
-        <v>11.09222034755017</v>
+        <v>11.09222034755018</v>
       </c>
       <c r="I19" t="n">
         <v>37.51847127780773</v>
       </c>
       <c r="J19" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635752</v>
       </c>
       <c r="K19" t="n">
         <v>144.9474192655328</v>
@@ -32400,7 +32400,7 @@
         <v>185.4827930100567</v>
       </c>
       <c r="M19" t="n">
-        <v>195.5655986225025</v>
+        <v>195.5655986225026</v>
       </c>
       <c r="N19" t="n">
         <v>190.9154857978651</v>
@@ -32415,13 +32415,13 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R19" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916474</v>
       </c>
       <c r="S19" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T19" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438219</v>
       </c>
       <c r="U19" t="n">
         <v>0.06805043158006245</v>
@@ -32473,37 +32473,37 @@
         <v>236.0585690830268</v>
       </c>
       <c r="K20" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840831</v>
       </c>
       <c r="L20" t="n">
         <v>438.9085275549832</v>
       </c>
       <c r="M20" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243822</v>
       </c>
       <c r="N20" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432016</v>
       </c>
       <c r="O20" t="n">
-        <v>468.6161885340029</v>
+        <v>468.616188534003</v>
       </c>
       <c r="P20" t="n">
         <v>399.9530750950748</v>
       </c>
       <c r="Q20" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418956</v>
       </c>
       <c r="R20" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S20" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413467</v>
       </c>
       <c r="T20" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755137</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,13 +32540,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.488121701911175</v>
+        <v>1.488121701911176</v>
       </c>
       <c r="H21" t="n">
         <v>14.37212275266846</v>
       </c>
       <c r="I21" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281899</v>
       </c>
       <c r="J21" t="n">
         <v>140.5948665827572</v>
@@ -32567,22 +32567,22 @@
         <v>354.0620086121734</v>
       </c>
       <c r="P21" t="n">
-        <v>284.1659765693366</v>
+        <v>284.1659765693367</v>
       </c>
       <c r="Q21" t="n">
         <v>189.9574298790476</v>
       </c>
       <c r="R21" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988863</v>
       </c>
       <c r="S21" t="n">
-        <v>27.64120792804308</v>
+        <v>27.64120792804309</v>
       </c>
       <c r="T21" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633201</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678791</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,13 +32622,13 @@
         <v>1.247591245634477</v>
       </c>
       <c r="H22" t="n">
-        <v>11.09222034755017</v>
+        <v>11.09222034755018</v>
       </c>
       <c r="I22" t="n">
         <v>37.51847127780773</v>
       </c>
       <c r="J22" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635752</v>
       </c>
       <c r="K22" t="n">
         <v>144.9474192655328</v>
@@ -32637,7 +32637,7 @@
         <v>185.4827930100567</v>
       </c>
       <c r="M22" t="n">
-        <v>195.5655986225025</v>
+        <v>195.5655986225026</v>
       </c>
       <c r="N22" t="n">
         <v>190.9154857978651</v>
@@ -32652,13 +32652,13 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R22" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916474</v>
       </c>
       <c r="S22" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T22" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438219</v>
       </c>
       <c r="U22" t="n">
         <v>0.06805043158006245</v>
@@ -32710,37 +32710,37 @@
         <v>236.0585690830268</v>
       </c>
       <c r="K23" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840831</v>
       </c>
       <c r="L23" t="n">
         <v>438.9085275549832</v>
       </c>
       <c r="M23" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243822</v>
       </c>
       <c r="N23" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432016</v>
       </c>
       <c r="O23" t="n">
-        <v>468.6161885340029</v>
+        <v>468.616188534003</v>
       </c>
       <c r="P23" t="n">
         <v>399.9530750950748</v>
       </c>
       <c r="Q23" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418956</v>
       </c>
       <c r="R23" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S23" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413467</v>
       </c>
       <c r="T23" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755137</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,13 +32777,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.488121701911175</v>
+        <v>1.488121701911176</v>
       </c>
       <c r="H24" t="n">
         <v>14.37212275266846</v>
       </c>
       <c r="I24" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281899</v>
       </c>
       <c r="J24" t="n">
         <v>140.5948665827572</v>
@@ -32804,22 +32804,22 @@
         <v>354.0620086121734</v>
       </c>
       <c r="P24" t="n">
-        <v>284.1659765693366</v>
+        <v>284.1659765693367</v>
       </c>
       <c r="Q24" t="n">
         <v>189.9574298790476</v>
       </c>
       <c r="R24" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988863</v>
       </c>
       <c r="S24" t="n">
-        <v>27.64120792804308</v>
+        <v>27.64120792804309</v>
       </c>
       <c r="T24" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633201</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678791</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,13 +32859,13 @@
         <v>1.247591245634477</v>
       </c>
       <c r="H25" t="n">
-        <v>11.09222034755017</v>
+        <v>11.09222034755018</v>
       </c>
       <c r="I25" t="n">
         <v>37.51847127780773</v>
       </c>
       <c r="J25" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635752</v>
       </c>
       <c r="K25" t="n">
         <v>144.9474192655328</v>
@@ -32874,7 +32874,7 @@
         <v>185.4827930100567</v>
       </c>
       <c r="M25" t="n">
-        <v>195.5655986225025</v>
+        <v>195.5655986225026</v>
       </c>
       <c r="N25" t="n">
         <v>190.9154857978651</v>
@@ -32889,13 +32889,13 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R25" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916474</v>
       </c>
       <c r="S25" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T25" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438219</v>
       </c>
       <c r="U25" t="n">
         <v>0.06805043158006245</v>
@@ -32947,37 +32947,37 @@
         <v>236.0585690830268</v>
       </c>
       <c r="K26" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840831</v>
       </c>
       <c r="L26" t="n">
         <v>438.9085275549832</v>
       </c>
       <c r="M26" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243822</v>
       </c>
       <c r="N26" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432016</v>
       </c>
       <c r="O26" t="n">
-        <v>468.6161885340029</v>
+        <v>468.616188534003</v>
       </c>
       <c r="P26" t="n">
         <v>399.9530750950748</v>
       </c>
       <c r="Q26" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418956</v>
       </c>
       <c r="R26" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S26" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413467</v>
       </c>
       <c r="T26" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755137</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,13 +33014,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.488121701911175</v>
+        <v>1.488121701911176</v>
       </c>
       <c r="H27" t="n">
         <v>14.37212275266846</v>
       </c>
       <c r="I27" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281899</v>
       </c>
       <c r="J27" t="n">
         <v>140.5948665827572</v>
@@ -33041,22 +33041,22 @@
         <v>354.0620086121734</v>
       </c>
       <c r="P27" t="n">
-        <v>284.1659765693366</v>
+        <v>284.1659765693367</v>
       </c>
       <c r="Q27" t="n">
         <v>189.9574298790476</v>
       </c>
       <c r="R27" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988863</v>
       </c>
       <c r="S27" t="n">
-        <v>27.64120792804308</v>
+        <v>27.64120792804309</v>
       </c>
       <c r="T27" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633201</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678791</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,13 +33096,13 @@
         <v>1.247591245634477</v>
       </c>
       <c r="H28" t="n">
-        <v>11.09222034755017</v>
+        <v>11.09222034755018</v>
       </c>
       <c r="I28" t="n">
         <v>37.51847127780773</v>
       </c>
       <c r="J28" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635752</v>
       </c>
       <c r="K28" t="n">
         <v>144.9474192655328</v>
@@ -33111,7 +33111,7 @@
         <v>185.4827930100567</v>
       </c>
       <c r="M28" t="n">
-        <v>195.5655986225025</v>
+        <v>195.5655986225026</v>
       </c>
       <c r="N28" t="n">
         <v>190.9154857978651</v>
@@ -33126,13 +33126,13 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R28" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916474</v>
       </c>
       <c r="S28" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T28" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438219</v>
       </c>
       <c r="U28" t="n">
         <v>0.06805043158006245</v>
@@ -33184,37 +33184,37 @@
         <v>236.0585690830268</v>
       </c>
       <c r="K29" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840831</v>
       </c>
       <c r="L29" t="n">
         <v>438.9085275549832</v>
       </c>
       <c r="M29" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243822</v>
       </c>
       <c r="N29" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432016</v>
       </c>
       <c r="O29" t="n">
-        <v>468.6161885340029</v>
+        <v>468.616188534003</v>
       </c>
       <c r="P29" t="n">
         <v>399.9530750950748</v>
       </c>
       <c r="Q29" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418956</v>
       </c>
       <c r="R29" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S29" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413467</v>
       </c>
       <c r="T29" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755137</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,13 +33251,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.488121701911175</v>
+        <v>1.488121701911176</v>
       </c>
       <c r="H30" t="n">
         <v>14.37212275266846</v>
       </c>
       <c r="I30" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281899</v>
       </c>
       <c r="J30" t="n">
         <v>140.5948665827572</v>
@@ -33278,22 +33278,22 @@
         <v>354.0620086121734</v>
       </c>
       <c r="P30" t="n">
-        <v>284.1659765693366</v>
+        <v>284.1659765693367</v>
       </c>
       <c r="Q30" t="n">
         <v>189.9574298790476</v>
       </c>
       <c r="R30" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988863</v>
       </c>
       <c r="S30" t="n">
-        <v>27.64120792804308</v>
+        <v>27.64120792804309</v>
       </c>
       <c r="T30" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633201</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678791</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,13 +33333,13 @@
         <v>1.247591245634477</v>
       </c>
       <c r="H31" t="n">
-        <v>11.09222034755017</v>
+        <v>11.09222034755018</v>
       </c>
       <c r="I31" t="n">
         <v>37.51847127780773</v>
       </c>
       <c r="J31" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635752</v>
       </c>
       <c r="K31" t="n">
         <v>144.9474192655328</v>
@@ -33348,7 +33348,7 @@
         <v>185.4827930100567</v>
       </c>
       <c r="M31" t="n">
-        <v>195.5655986225025</v>
+        <v>195.5655986225026</v>
       </c>
       <c r="N31" t="n">
         <v>190.9154857978651</v>
@@ -33363,13 +33363,13 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R31" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916474</v>
       </c>
       <c r="S31" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T31" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438219</v>
       </c>
       <c r="U31" t="n">
         <v>0.06805043158006245</v>
@@ -33421,37 +33421,37 @@
         <v>236.0585690830268</v>
       </c>
       <c r="K32" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840831</v>
       </c>
       <c r="L32" t="n">
         <v>438.9085275549832</v>
       </c>
       <c r="M32" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243822</v>
       </c>
       <c r="N32" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432016</v>
       </c>
       <c r="O32" t="n">
-        <v>468.6161885340029</v>
+        <v>468.616188534003</v>
       </c>
       <c r="P32" t="n">
         <v>399.9530750950748</v>
       </c>
       <c r="Q32" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418956</v>
       </c>
       <c r="R32" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S32" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413467</v>
       </c>
       <c r="T32" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755137</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,13 +33488,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.488121701911175</v>
+        <v>1.488121701911176</v>
       </c>
       <c r="H33" t="n">
         <v>14.37212275266846</v>
       </c>
       <c r="I33" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281899</v>
       </c>
       <c r="J33" t="n">
         <v>140.5948665827572</v>
@@ -33515,22 +33515,22 @@
         <v>354.0620086121734</v>
       </c>
       <c r="P33" t="n">
-        <v>284.1659765693366</v>
+        <v>284.1659765693367</v>
       </c>
       <c r="Q33" t="n">
         <v>189.9574298790476</v>
       </c>
       <c r="R33" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988863</v>
       </c>
       <c r="S33" t="n">
-        <v>27.64120792804308</v>
+        <v>27.64120792804309</v>
       </c>
       <c r="T33" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633201</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678791</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,13 +33570,13 @@
         <v>1.247591245634477</v>
       </c>
       <c r="H34" t="n">
-        <v>11.09222034755017</v>
+        <v>11.09222034755018</v>
       </c>
       <c r="I34" t="n">
         <v>37.51847127780773</v>
       </c>
       <c r="J34" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635752</v>
       </c>
       <c r="K34" t="n">
         <v>144.9474192655328</v>
@@ -33585,7 +33585,7 @@
         <v>185.4827930100567</v>
       </c>
       <c r="M34" t="n">
-        <v>195.5655986225025</v>
+        <v>195.5655986225026</v>
       </c>
       <c r="N34" t="n">
         <v>190.9154857978651</v>
@@ -33600,13 +33600,13 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R34" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916474</v>
       </c>
       <c r="S34" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T34" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438219</v>
       </c>
       <c r="U34" t="n">
         <v>0.06805043158006245</v>
@@ -33658,37 +33658,37 @@
         <v>236.0585690830268</v>
       </c>
       <c r="K35" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840831</v>
       </c>
       <c r="L35" t="n">
         <v>438.9085275549832</v>
       </c>
       <c r="M35" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243822</v>
       </c>
       <c r="N35" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432016</v>
       </c>
       <c r="O35" t="n">
-        <v>468.6161885340029</v>
+        <v>468.616188534003</v>
       </c>
       <c r="P35" t="n">
         <v>399.9530750950748</v>
       </c>
       <c r="Q35" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418956</v>
       </c>
       <c r="R35" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S35" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413467</v>
       </c>
       <c r="T35" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755137</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,13 +33725,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.488121701911175</v>
+        <v>1.488121701911176</v>
       </c>
       <c r="H36" t="n">
         <v>14.37212275266846</v>
       </c>
       <c r="I36" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281899</v>
       </c>
       <c r="J36" t="n">
         <v>140.5948665827572</v>
@@ -33752,22 +33752,22 @@
         <v>354.0620086121734</v>
       </c>
       <c r="P36" t="n">
-        <v>284.1659765693366</v>
+        <v>284.1659765693367</v>
       </c>
       <c r="Q36" t="n">
         <v>189.9574298790476</v>
       </c>
       <c r="R36" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988863</v>
       </c>
       <c r="S36" t="n">
-        <v>27.64120792804308</v>
+        <v>27.64120792804309</v>
       </c>
       <c r="T36" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633201</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678791</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,13 +33807,13 @@
         <v>1.247591245634477</v>
       </c>
       <c r="H37" t="n">
-        <v>11.09222034755017</v>
+        <v>11.09222034755018</v>
       </c>
       <c r="I37" t="n">
         <v>37.51847127780773</v>
       </c>
       <c r="J37" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635752</v>
       </c>
       <c r="K37" t="n">
         <v>144.9474192655328</v>
@@ -33822,7 +33822,7 @@
         <v>185.4827930100567</v>
       </c>
       <c r="M37" t="n">
-        <v>195.5655986225025</v>
+        <v>195.5655986225026</v>
       </c>
       <c r="N37" t="n">
         <v>190.9154857978651</v>
@@ -33837,13 +33837,13 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R37" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916474</v>
       </c>
       <c r="S37" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T37" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438219</v>
       </c>
       <c r="U37" t="n">
         <v>0.06805043158006245</v>
@@ -33895,37 +33895,37 @@
         <v>236.0585690830268</v>
       </c>
       <c r="K38" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840831</v>
       </c>
       <c r="L38" t="n">
         <v>438.9085275549832</v>
       </c>
       <c r="M38" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243822</v>
       </c>
       <c r="N38" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432016</v>
       </c>
       <c r="O38" t="n">
-        <v>468.6161885340029</v>
+        <v>468.616188534003</v>
       </c>
       <c r="P38" t="n">
         <v>399.9530750950748</v>
       </c>
       <c r="Q38" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418956</v>
       </c>
       <c r="R38" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S38" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413467</v>
       </c>
       <c r="T38" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755137</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,13 +33962,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.488121701911175</v>
+        <v>1.488121701911176</v>
       </c>
       <c r="H39" t="n">
         <v>14.37212275266846</v>
       </c>
       <c r="I39" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281899</v>
       </c>
       <c r="J39" t="n">
         <v>140.5948665827572</v>
@@ -33989,22 +33989,22 @@
         <v>354.0620086121734</v>
       </c>
       <c r="P39" t="n">
-        <v>284.1659765693366</v>
+        <v>284.1659765693367</v>
       </c>
       <c r="Q39" t="n">
         <v>189.9574298790476</v>
       </c>
       <c r="R39" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988863</v>
       </c>
       <c r="S39" t="n">
-        <v>27.64120792804308</v>
+        <v>27.64120792804309</v>
       </c>
       <c r="T39" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633201</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678791</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,13 +34044,13 @@
         <v>1.247591245634477</v>
       </c>
       <c r="H40" t="n">
-        <v>11.09222034755017</v>
+        <v>11.09222034755018</v>
       </c>
       <c r="I40" t="n">
         <v>37.51847127780773</v>
       </c>
       <c r="J40" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635752</v>
       </c>
       <c r="K40" t="n">
         <v>144.9474192655328</v>
@@ -34059,7 +34059,7 @@
         <v>185.4827930100567</v>
       </c>
       <c r="M40" t="n">
-        <v>195.5655986225025</v>
+        <v>195.5655986225026</v>
       </c>
       <c r="N40" t="n">
         <v>190.9154857978651</v>
@@ -34074,13 +34074,13 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R40" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916474</v>
       </c>
       <c r="S40" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T40" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438219</v>
       </c>
       <c r="U40" t="n">
         <v>0.06805043158006245</v>
@@ -34132,37 +34132,37 @@
         <v>236.0585690830268</v>
       </c>
       <c r="K41" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840831</v>
       </c>
       <c r="L41" t="n">
         <v>438.9085275549832</v>
       </c>
       <c r="M41" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243822</v>
       </c>
       <c r="N41" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432016</v>
       </c>
       <c r="O41" t="n">
-        <v>468.6161885340029</v>
+        <v>468.616188534003</v>
       </c>
       <c r="P41" t="n">
         <v>399.9530750950748</v>
       </c>
       <c r="Q41" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418956</v>
       </c>
       <c r="R41" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S41" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413467</v>
       </c>
       <c r="T41" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755137</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,13 +34199,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.488121701911175</v>
+        <v>1.488121701911176</v>
       </c>
       <c r="H42" t="n">
         <v>14.37212275266846</v>
       </c>
       <c r="I42" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281899</v>
       </c>
       <c r="J42" t="n">
         <v>140.5948665827572</v>
@@ -34226,22 +34226,22 @@
         <v>354.0620086121734</v>
       </c>
       <c r="P42" t="n">
-        <v>284.1659765693366</v>
+        <v>284.1659765693367</v>
       </c>
       <c r="Q42" t="n">
         <v>189.9574298790476</v>
       </c>
       <c r="R42" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988863</v>
       </c>
       <c r="S42" t="n">
-        <v>27.64120792804308</v>
+        <v>27.64120792804309</v>
       </c>
       <c r="T42" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633201</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678791</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,13 +34281,13 @@
         <v>1.247591245634477</v>
       </c>
       <c r="H43" t="n">
-        <v>11.09222034755017</v>
+        <v>11.09222034755018</v>
       </c>
       <c r="I43" t="n">
         <v>37.51847127780773</v>
       </c>
       <c r="J43" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635752</v>
       </c>
       <c r="K43" t="n">
         <v>144.9474192655328</v>
@@ -34296,7 +34296,7 @@
         <v>185.4827930100567</v>
       </c>
       <c r="M43" t="n">
-        <v>195.5655986225025</v>
+        <v>195.5655986225026</v>
       </c>
       <c r="N43" t="n">
         <v>190.9154857978651</v>
@@ -34311,13 +34311,13 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R43" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916474</v>
       </c>
       <c r="S43" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T43" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438219</v>
       </c>
       <c r="U43" t="n">
         <v>0.06805043158006245</v>
@@ -34369,37 +34369,37 @@
         <v>236.0585690830268</v>
       </c>
       <c r="K44" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840831</v>
       </c>
       <c r="L44" t="n">
         <v>438.9085275549832</v>
       </c>
       <c r="M44" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243822</v>
       </c>
       <c r="N44" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432016</v>
       </c>
       <c r="O44" t="n">
-        <v>468.6161885340029</v>
+        <v>468.616188534003</v>
       </c>
       <c r="P44" t="n">
         <v>399.9530750950748</v>
       </c>
       <c r="Q44" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418956</v>
       </c>
       <c r="R44" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S44" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413467</v>
       </c>
       <c r="T44" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755137</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,13 +34436,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.488121701911175</v>
+        <v>1.488121701911176</v>
       </c>
       <c r="H45" t="n">
         <v>14.37212275266846</v>
       </c>
       <c r="I45" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281899</v>
       </c>
       <c r="J45" t="n">
         <v>140.5948665827572</v>
@@ -34463,22 +34463,22 @@
         <v>354.0620086121734</v>
       </c>
       <c r="P45" t="n">
-        <v>284.1659765693366</v>
+        <v>284.1659765693367</v>
       </c>
       <c r="Q45" t="n">
         <v>189.9574298790476</v>
       </c>
       <c r="R45" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988863</v>
       </c>
       <c r="S45" t="n">
-        <v>27.64120792804308</v>
+        <v>27.64120792804309</v>
       </c>
       <c r="T45" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633201</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678791</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,13 +34518,13 @@
         <v>1.247591245634477</v>
       </c>
       <c r="H46" t="n">
-        <v>11.09222034755017</v>
+        <v>11.09222034755018</v>
       </c>
       <c r="I46" t="n">
         <v>37.51847127780773</v>
       </c>
       <c r="J46" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635752</v>
       </c>
       <c r="K46" t="n">
         <v>144.9474192655328</v>
@@ -34533,7 +34533,7 @@
         <v>185.4827930100567</v>
       </c>
       <c r="M46" t="n">
-        <v>195.5655986225025</v>
+        <v>195.5655986225026</v>
       </c>
       <c r="N46" t="n">
         <v>190.9154857978651</v>
@@ -34548,13 +34548,13 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R46" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916474</v>
       </c>
       <c r="S46" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T46" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438219</v>
       </c>
       <c r="U46" t="n">
         <v>0.06805043158006245</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>55.01266455634052</v>
+        <v>224.1092797284143</v>
       </c>
       <c r="K11" t="n">
-        <v>336.5028392438473</v>
+        <v>133.7007521391026</v>
       </c>
       <c r="L11" t="n">
-        <v>583.6180421611867</v>
+        <v>203.142112584996</v>
       </c>
       <c r="M11" t="n">
-        <v>583.6180421611867</v>
+        <v>258.0240722971095</v>
       </c>
       <c r="N11" t="n">
-        <v>266.8595840466106</v>
+        <v>583.6180421611871</v>
       </c>
       <c r="O11" t="n">
-        <v>238.5179771123162</v>
+        <v>424.378767543244</v>
       </c>
       <c r="P11" t="n">
-        <v>168.7200793398052</v>
+        <v>168.7200793398053</v>
       </c>
       <c r="Q11" t="n">
-        <v>78.04241306744606</v>
+        <v>290.3574037273508</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>24.84113216753155</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>13.75723991609047</v>
+        <v>13.7572399160905</v>
       </c>
       <c r="K12" t="n">
         <v>102.4575816364469</v>
       </c>
       <c r="L12" t="n">
-        <v>555.3976534758339</v>
+        <v>555.397653475834</v>
       </c>
       <c r="M12" t="n">
-        <v>234.9220657245106</v>
+        <v>583.6180421611871</v>
       </c>
       <c r="N12" t="n">
-        <v>583.6180421611867</v>
+        <v>255.6939405553983</v>
       </c>
       <c r="O12" t="n">
-        <v>583.6180421611867</v>
+        <v>211.465764167729</v>
       </c>
       <c r="P12" t="n">
-        <v>187.1453608204581</v>
+        <v>328.4484762471796</v>
       </c>
       <c r="Q12" t="n">
-        <v>49.97565579302608</v>
+        <v>260.0529435288752</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.27673217679164</v>
+        <v>74.27673217679165</v>
       </c>
       <c r="K13" t="n">
-        <v>202.1091386667568</v>
+        <v>202.1091386667569</v>
       </c>
       <c r="L13" t="n">
-        <v>292.5040294974797</v>
+        <v>292.5040294974798</v>
       </c>
       <c r="M13" t="n">
         <v>314.5806868114501</v>
@@ -35586,7 +35586,7 @@
         <v>227.600260782192</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.73792218940494</v>
+        <v>97.73792218940497</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>55.01266455634052</v>
+        <v>55.01266455634055</v>
       </c>
       <c r="K14" t="n">
-        <v>133.7007521391025</v>
+        <v>159.5637131112636</v>
       </c>
       <c r="L14" t="n">
-        <v>583.6180421611867</v>
+        <v>203.142112584996</v>
       </c>
       <c r="M14" t="n">
-        <v>258.0240722971093</v>
+        <v>583.6180421611872</v>
       </c>
       <c r="N14" t="n">
-        <v>266.8595840466106</v>
+        <v>266.8595840466107</v>
       </c>
       <c r="O14" t="n">
-        <v>238.5179771123162</v>
+        <v>583.6180421611872</v>
       </c>
       <c r="P14" t="n">
-        <v>459.9600134811913</v>
+        <v>168.7200793398053</v>
       </c>
       <c r="Q14" t="n">
-        <v>290.3574037273507</v>
+        <v>290.3574037273508</v>
       </c>
       <c r="R14" t="n">
-        <v>24.84113216753153</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>13.75723991609047</v>
+        <v>139.8482752564993</v>
       </c>
       <c r="K15" t="n">
         <v>366.9228186490255</v>
       </c>
       <c r="L15" t="n">
-        <v>555.3976534758339</v>
+        <v>184.5573081723747</v>
       </c>
       <c r="M15" t="n">
-        <v>335.3347219831723</v>
+        <v>234.9220657245106</v>
       </c>
       <c r="N15" t="n">
-        <v>255.6939405553983</v>
+        <v>282.3931381371742</v>
       </c>
       <c r="O15" t="n">
-        <v>583.6180421611867</v>
+        <v>583.6180421611872</v>
       </c>
       <c r="P15" t="n">
-        <v>150.1915691550064</v>
+        <v>468.6543377949436</v>
       </c>
       <c r="Q15" t="n">
-        <v>49.97565579302608</v>
+        <v>49.97565579302611</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.27673217679164</v>
+        <v>74.27673217679165</v>
       </c>
       <c r="K16" t="n">
-        <v>202.1091386667568</v>
+        <v>202.1091386667569</v>
       </c>
       <c r="L16" t="n">
-        <v>292.5040294974804</v>
+        <v>292.5040294974798</v>
       </c>
       <c r="M16" t="n">
         <v>314.5806868114501</v>
@@ -35817,13 +35817,13 @@
         <v>314.4788694042006</v>
       </c>
       <c r="O16" t="n">
-        <v>280.3576908422816</v>
+        <v>280.3576908422821</v>
       </c>
       <c r="P16" t="n">
         <v>227.600260782192</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.73792218940494</v>
+        <v>97.73792218940497</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>55.01266455634052</v>
+        <v>55.01266455634055</v>
       </c>
       <c r="K17" t="n">
-        <v>133.7007521391025</v>
+        <v>457.8461647102673</v>
       </c>
       <c r="L17" t="n">
-        <v>583.6180421611867</v>
+        <v>437.4335845272367</v>
       </c>
       <c r="M17" t="n">
-        <v>258.0240722971093</v>
+        <v>583.6180421611872</v>
       </c>
       <c r="N17" t="n">
-        <v>583.6180421611867</v>
+        <v>266.8595840466107</v>
       </c>
       <c r="O17" t="n">
         <v>238.5179771123162</v>
       </c>
       <c r="P17" t="n">
-        <v>355.51654602652</v>
+        <v>168.7200793398053</v>
       </c>
       <c r="Q17" t="n">
-        <v>78.04241306744606</v>
+        <v>78.04241306744612</v>
       </c>
       <c r="R17" t="n">
-        <v>24.84113216753153</v>
+        <v>24.84113216753155</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>13.75723991609047</v>
+        <v>139.8482752564993</v>
       </c>
       <c r="K18" t="n">
         <v>366.9228186490255</v>
       </c>
       <c r="L18" t="n">
-        <v>327.8862081287071</v>
+        <v>184.5573081723747</v>
       </c>
       <c r="M18" t="n">
-        <v>234.9220657245106</v>
+        <v>583.6180421611872</v>
       </c>
       <c r="N18" t="n">
-        <v>583.6180421611867</v>
+        <v>255.6939405553983</v>
       </c>
       <c r="O18" t="n">
-        <v>583.6180421611867</v>
+        <v>580.0840319462235</v>
       </c>
       <c r="P18" t="n">
         <v>150.1915691550064</v>
       </c>
       <c r="Q18" t="n">
-        <v>49.97565579302608</v>
+        <v>49.97565579302611</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,13 +36042,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>122.6779274396499</v>
+        <v>122.67792743965</v>
       </c>
       <c r="L19" t="n">
-        <v>213.0728182703728</v>
+        <v>213.0728182703729</v>
       </c>
       <c r="M19" t="n">
-        <v>235.1494755843431</v>
+        <v>235.1494755843432</v>
       </c>
       <c r="N19" t="n">
         <v>235.0476581770937</v>
@@ -36060,7 +36060,7 @@
         <v>148.1690495550851</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.30671096229803</v>
+        <v>18.30671096229806</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>55.01266455634052</v>
+        <v>55.01266455634055</v>
       </c>
       <c r="K20" t="n">
-        <v>133.7007521391025</v>
+        <v>133.7007521391026</v>
       </c>
       <c r="L20" t="n">
-        <v>203.1421125849959</v>
+        <v>439.7802889269187</v>
       </c>
       <c r="M20" t="n">
-        <v>258.0240722971093</v>
+        <v>583.6180421611872</v>
       </c>
       <c r="N20" t="n">
-        <v>508.8327973712705</v>
+        <v>266.8595840466107</v>
       </c>
       <c r="O20" t="n">
-        <v>583.6180421611867</v>
+        <v>238.5179771123162</v>
       </c>
       <c r="P20" t="n">
         <v>490.5187875112879</v>
       </c>
       <c r="Q20" t="n">
-        <v>78.04241306744606</v>
+        <v>78.04241306744612</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>24.84113216753155</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>139.8482752564993</v>
       </c>
       <c r="K21" t="n">
-        <v>341.2444395672784</v>
+        <v>102.4575816364469</v>
       </c>
       <c r="L21" t="n">
-        <v>555.3976534758339</v>
+        <v>555.397653475834</v>
       </c>
       <c r="M21" t="n">
-        <v>234.9220657245106</v>
+        <v>317.3211452730151</v>
       </c>
       <c r="N21" t="n">
         <v>255.6939405553983</v>
       </c>
       <c r="O21" t="n">
-        <v>583.6180421611867</v>
+        <v>211.465764167729</v>
       </c>
       <c r="P21" t="n">
-        <v>150.1915691550064</v>
+        <v>468.6543377949436</v>
       </c>
       <c r="Q21" t="n">
-        <v>49.97565579302608</v>
+        <v>260.0529435288752</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,13 +36279,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>122.6779274396499</v>
+        <v>122.67792743965</v>
       </c>
       <c r="L22" t="n">
-        <v>213.0728182703728</v>
+        <v>213.0728182703729</v>
       </c>
       <c r="M22" t="n">
-        <v>235.1494755843431</v>
+        <v>235.1494755843432</v>
       </c>
       <c r="N22" t="n">
         <v>235.0476581770937</v>
@@ -36297,7 +36297,7 @@
         <v>148.1690495550851</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.30671096229803</v>
+        <v>18.30671096229806</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>55.01266455634052</v>
+        <v>55.01266455634055</v>
       </c>
       <c r="K23" t="n">
-        <v>133.7007521391025</v>
+        <v>215.3473395079134</v>
       </c>
       <c r="L23" t="n">
-        <v>203.1421125849959</v>
+        <v>620.8033271354464</v>
       </c>
       <c r="M23" t="n">
-        <v>629.974031299944</v>
+        <v>258.0240722971095</v>
       </c>
       <c r="N23" t="n">
-        <v>266.8595840466106</v>
+        <v>266.8595840466107</v>
       </c>
       <c r="O23" t="n">
         <v>619.3181583750616</v>
       </c>
       <c r="P23" t="n">
-        <v>271.2367900886996</v>
+        <v>168.7200793398053</v>
       </c>
       <c r="Q23" t="n">
-        <v>290.3574037273507</v>
+        <v>290.3574037273508</v>
       </c>
       <c r="R23" t="n">
-        <v>24.84113216753153</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,19 +36437,19 @@
         <v>139.8482752564993</v>
       </c>
       <c r="K24" t="n">
-        <v>366.9228186490255</v>
+        <v>102.4575816364469</v>
       </c>
       <c r="L24" t="n">
-        <v>555.3976534758339</v>
+        <v>184.5573081723747</v>
       </c>
       <c r="M24" t="n">
-        <v>234.9220657245106</v>
+        <v>629.9740312999443</v>
       </c>
       <c r="N24" t="n">
-        <v>257.1787703882201</v>
+        <v>497.4323871288249</v>
       </c>
       <c r="O24" t="n">
-        <v>211.4657641677289</v>
+        <v>211.465764167729</v>
       </c>
       <c r="P24" t="n">
         <v>468.6543377949436</v>
@@ -36516,13 +36516,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>122.6779274396499</v>
+        <v>122.67792743965</v>
       </c>
       <c r="L25" t="n">
-        <v>213.0728182703728</v>
+        <v>213.0728182703729</v>
       </c>
       <c r="M25" t="n">
-        <v>235.1494755843431</v>
+        <v>235.1494755843432</v>
       </c>
       <c r="N25" t="n">
         <v>235.0476581770937</v>
@@ -36534,7 +36534,7 @@
         <v>148.1690495550851</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.30671096229803</v>
+        <v>18.30671096229806</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>55.01266455634052</v>
+        <v>224.1092797284143</v>
       </c>
       <c r="K26" t="n">
-        <v>152.1171224155207</v>
+        <v>457.8461647102673</v>
       </c>
       <c r="L26" t="n">
-        <v>620.8033271354464</v>
+        <v>203.142112584996</v>
       </c>
       <c r="M26" t="n">
-        <v>707.5376057899418</v>
+        <v>707.5376057899419</v>
       </c>
       <c r="N26" t="n">
-        <v>704.2065084585947</v>
+        <v>704.2065084585948</v>
       </c>
       <c r="O26" t="n">
         <v>619.3181583750616</v>
       </c>
       <c r="P26" t="n">
-        <v>490.5187875112879</v>
+        <v>408.5132124273877</v>
       </c>
       <c r="Q26" t="n">
-        <v>290.3574037273507</v>
+        <v>290.3574037273508</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>24.84113216753155</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,19 +36677,19 @@
         <v>102.4575816364469</v>
       </c>
       <c r="L27" t="n">
-        <v>366.1980089482159</v>
+        <v>513.4403040582781</v>
       </c>
       <c r="M27" t="n">
-        <v>700.6271294745104</v>
+        <v>234.9220657245106</v>
       </c>
       <c r="N27" t="n">
         <v>255.6939405553983</v>
       </c>
       <c r="O27" t="n">
-        <v>605.3280834444585</v>
+        <v>605.3280834444586</v>
       </c>
       <c r="P27" t="n">
-        <v>150.1915691550064</v>
+        <v>468.6543377949436</v>
       </c>
       <c r="Q27" t="n">
         <v>260.0529435288752</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.27673217679167</v>
+        <v>74.27673217679164</v>
       </c>
       <c r="K28" t="n">
         <v>202.1091386667569</v>
@@ -36771,7 +36771,7 @@
         <v>227.600260782192</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.73792218940497</v>
+        <v>97.73792218940496</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>55.01266455634052</v>
+        <v>224.1092797284143</v>
       </c>
       <c r="K29" t="n">
-        <v>457.8461647102672</v>
+        <v>457.8461647102673</v>
       </c>
       <c r="L29" t="n">
-        <v>290.233152673169</v>
+        <v>620.8033271354464</v>
       </c>
       <c r="M29" t="n">
-        <v>707.5376057899418</v>
+        <v>707.5376057899419</v>
       </c>
       <c r="N29" t="n">
-        <v>704.2065084585947</v>
+        <v>704.2065084585948</v>
       </c>
       <c r="O29" t="n">
-        <v>619.3181583750616</v>
+        <v>238.5179771123162</v>
       </c>
       <c r="P29" t="n">
-        <v>490.5187875112879</v>
+        <v>396.4933113072133</v>
       </c>
       <c r="Q29" t="n">
-        <v>290.3574037273507</v>
+        <v>290.3574037273508</v>
       </c>
       <c r="R29" t="n">
-        <v>24.84113216753153</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>139.8482752564993</v>
+        <v>13.7572399160905</v>
       </c>
       <c r="K30" t="n">
-        <v>102.4575816364469</v>
+        <v>366.9228186490255</v>
       </c>
       <c r="L30" t="n">
-        <v>555.3976534758339</v>
+        <v>184.5573081723747</v>
       </c>
       <c r="M30" t="n">
-        <v>700.6271294745104</v>
+        <v>339.9508048714206</v>
       </c>
       <c r="N30" t="n">
-        <v>255.6939405553983</v>
+        <v>735.0363148989518</v>
       </c>
       <c r="O30" t="n">
-        <v>605.3280834444585</v>
+        <v>211.465764167729</v>
       </c>
       <c r="P30" t="n">
-        <v>171.0692123632376</v>
+        <v>468.6543377949436</v>
       </c>
       <c r="Q30" t="n">
-        <v>49.97565579302608</v>
+        <v>260.0529435288752</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>74.27673217679167</v>
+        <v>74.2767321767917</v>
       </c>
       <c r="K31" t="n">
         <v>202.1091386667569</v>
       </c>
       <c r="L31" t="n">
-        <v>292.5040294974798</v>
+        <v>292.5040294974795</v>
       </c>
       <c r="M31" t="n">
         <v>314.5806868114501</v>
       </c>
       <c r="N31" t="n">
-        <v>314.4788694042006</v>
+        <v>314.4788694042007</v>
       </c>
       <c r="O31" t="n">
-        <v>280.3576908422816</v>
+        <v>280.3576908422817</v>
       </c>
       <c r="P31" t="n">
         <v>227.600260782192</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.73792218940497</v>
+        <v>97.73792218940501</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>224.1092797284143</v>
       </c>
       <c r="K32" t="n">
-        <v>432.53404073628</v>
+        <v>338.9795563386612</v>
       </c>
       <c r="L32" t="n">
         <v>620.8033271354464</v>
       </c>
       <c r="M32" t="n">
-        <v>258.0240722971093</v>
+        <v>707.5376057899419</v>
       </c>
       <c r="N32" t="n">
-        <v>704.2065084585947</v>
+        <v>704.2065084585948</v>
       </c>
       <c r="O32" t="n">
-        <v>619.3181583750616</v>
+        <v>238.5179771123162</v>
       </c>
       <c r="P32" t="n">
         <v>490.5187875112879</v>
       </c>
       <c r="Q32" t="n">
-        <v>290.3574037273507</v>
+        <v>290.3574037273508</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>24.84113216753155</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>13.75723991609047</v>
+        <v>139.8482752564993</v>
       </c>
       <c r="K33" t="n">
-        <v>102.4575816364469</v>
+        <v>366.9228186490255</v>
       </c>
       <c r="L33" t="n">
-        <v>555.3976534758339</v>
+        <v>184.5573081723747</v>
       </c>
       <c r="M33" t="n">
-        <v>529.1330393832129</v>
+        <v>617.8025932377725</v>
       </c>
       <c r="N33" t="n">
         <v>255.6939405553983</v>
       </c>
       <c r="O33" t="n">
-        <v>605.3280834444585</v>
+        <v>605.3280834444586</v>
       </c>
       <c r="P33" t="n">
-        <v>468.6543377949436</v>
+        <v>150.1915691550064</v>
       </c>
       <c r="Q33" t="n">
-        <v>49.97565579302608</v>
+        <v>260.0529435288752</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>74.27673217679167</v>
+        <v>74.27673217679168</v>
       </c>
       <c r="K34" t="n">
         <v>202.1091386667569</v>
@@ -37236,16 +37236,16 @@
         <v>314.5806868114501</v>
       </c>
       <c r="N34" t="n">
-        <v>314.4788694042006</v>
+        <v>314.4788694042007</v>
       </c>
       <c r="O34" t="n">
-        <v>280.3576908422816</v>
+        <v>280.3576908422817</v>
       </c>
       <c r="P34" t="n">
         <v>227.600260782192</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.73792218940497</v>
+        <v>97.737922189405</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>224.1092797284143</v>
+        <v>55.01266455634055</v>
       </c>
       <c r="K35" t="n">
-        <v>133.7007521391025</v>
+        <v>457.8461647102673</v>
       </c>
       <c r="L35" t="n">
-        <v>620.8033271354464</v>
+        <v>528.8262739767032</v>
       </c>
       <c r="M35" t="n">
-        <v>380.0972896287206</v>
+        <v>258.0240722971095</v>
       </c>
       <c r="N35" t="n">
-        <v>266.8595840466106</v>
+        <v>266.8595840466107</v>
       </c>
       <c r="O35" t="n">
-        <v>238.5179771123162</v>
+        <v>619.3181583750616</v>
       </c>
       <c r="P35" t="n">
-        <v>490.5187875112879</v>
+        <v>168.7200793398053</v>
       </c>
       <c r="Q35" t="n">
-        <v>290.3574037273507</v>
+        <v>290.3574037273508</v>
       </c>
       <c r="R35" t="n">
-        <v>24.84113216753153</v>
+        <v>24.84113216753155</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>13.75723991609047</v>
+        <v>139.8482752564993</v>
       </c>
       <c r="K36" t="n">
         <v>102.4575816364469</v>
       </c>
       <c r="L36" t="n">
-        <v>555.3976534758339</v>
+        <v>184.5573081723747</v>
       </c>
       <c r="M36" t="n">
         <v>234.9220657245106</v>
       </c>
       <c r="N36" t="n">
-        <v>674.2621117002074</v>
+        <v>674.2621117002072</v>
       </c>
       <c r="O36" t="n">
-        <v>589.3563668624408</v>
+        <v>515.6429081855536</v>
       </c>
       <c r="P36" t="n">
-        <v>150.1915691550064</v>
+        <v>468.6543377949436</v>
       </c>
       <c r="Q36" t="n">
         <v>260.0529435288752</v>
@@ -37464,13 +37464,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>122.6779274396499</v>
+        <v>122.67792743965</v>
       </c>
       <c r="L37" t="n">
-        <v>213.0728182703728</v>
+        <v>213.0728182703729</v>
       </c>
       <c r="M37" t="n">
-        <v>235.1494755843431</v>
+        <v>235.1494755843432</v>
       </c>
       <c r="N37" t="n">
         <v>235.0476581770937</v>
@@ -37482,7 +37482,7 @@
         <v>148.1690495550851</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.30671096229803</v>
+        <v>18.30671096229806</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>55.01266455634052</v>
+        <v>55.01266455634055</v>
       </c>
       <c r="K38" t="n">
-        <v>457.8461647102672</v>
+        <v>133.7007521391026</v>
       </c>
       <c r="L38" t="n">
-        <v>620.8033271354464</v>
+        <v>203.142112584996</v>
       </c>
       <c r="M38" t="n">
-        <v>258.0240722971093</v>
+        <v>674.2621117002075</v>
       </c>
       <c r="N38" t="n">
-        <v>387.197521547773</v>
+        <v>500.4511186063855</v>
       </c>
       <c r="O38" t="n">
         <v>619.3181583750616</v>
       </c>
       <c r="P38" t="n">
-        <v>168.7200793398052</v>
+        <v>168.7200793398053</v>
       </c>
       <c r="Q38" t="n">
-        <v>78.04241306744606</v>
+        <v>290.3574037273508</v>
       </c>
       <c r="R38" t="n">
-        <v>24.84113216753153</v>
+        <v>24.84113216753155</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>13.75723991609047</v>
+        <v>139.8482752564993</v>
       </c>
       <c r="K39" t="n">
-        <v>366.9228186490255</v>
+        <v>102.4575816364469</v>
       </c>
       <c r="L39" t="n">
-        <v>555.3976534758339</v>
+        <v>555.397653475834</v>
       </c>
       <c r="M39" t="n">
-        <v>234.9220657245106</v>
+        <v>674.2621117002075</v>
       </c>
       <c r="N39" t="n">
-        <v>674.2621117002074</v>
+        <v>255.6939405553983</v>
       </c>
       <c r="O39" t="n">
-        <v>211.4657641677289</v>
+        <v>334.1079757870554</v>
       </c>
       <c r="P39" t="n">
-        <v>263.6169348371391</v>
+        <v>468.6543377949436</v>
       </c>
       <c r="Q39" t="n">
-        <v>260.0529435288752</v>
+        <v>49.97565579302611</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,13 +37701,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>122.6779274396499</v>
+        <v>122.67792743965</v>
       </c>
       <c r="L40" t="n">
-        <v>213.0728182703728</v>
+        <v>213.0728182703729</v>
       </c>
       <c r="M40" t="n">
-        <v>235.1494755843431</v>
+        <v>235.1494755843432</v>
       </c>
       <c r="N40" t="n">
         <v>235.0476581770937</v>
@@ -37719,7 +37719,7 @@
         <v>148.1690495550851</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.30671096229803</v>
+        <v>18.30671096229806</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,25 +37780,25 @@
         <v>224.1092797284143</v>
       </c>
       <c r="K41" t="n">
-        <v>133.7007521391025</v>
+        <v>457.8461647102673</v>
       </c>
       <c r="L41" t="n">
-        <v>203.1421125849959</v>
+        <v>203.142112584996</v>
       </c>
       <c r="M41" t="n">
+        <v>258.0240722971095</v>
+      </c>
+      <c r="N41" t="n">
         <v>674.2621117002075</v>
       </c>
-      <c r="N41" t="n">
-        <v>266.8595840466106</v>
-      </c>
       <c r="O41" t="n">
-        <v>599.1704924187165</v>
+        <v>605.6592997685354</v>
       </c>
       <c r="P41" t="n">
-        <v>490.5187875112879</v>
+        <v>168.7200793398053</v>
       </c>
       <c r="Q41" t="n">
-        <v>78.04241306744606</v>
+        <v>78.04241306744612</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>13.75723991609047</v>
+        <v>139.8482752564993</v>
       </c>
       <c r="K42" t="n">
-        <v>102.4575816364469</v>
+        <v>366.9228186490255</v>
       </c>
       <c r="L42" t="n">
         <v>184.5573081723747</v>
       </c>
       <c r="M42" t="n">
-        <v>674.2621117002075</v>
+        <v>299.3398245978359</v>
       </c>
       <c r="N42" t="n">
-        <v>674.2621117002075</v>
+        <v>255.6939405553983</v>
       </c>
       <c r="O42" t="n">
-        <v>520.856666190203</v>
+        <v>605.3280834444586</v>
       </c>
       <c r="P42" t="n">
-        <v>150.1915691550064</v>
+        <v>468.6543377949436</v>
       </c>
       <c r="Q42" t="n">
         <v>260.0529435288752</v>
@@ -37938,13 +37938,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>122.6779274396499</v>
+        <v>122.67792743965</v>
       </c>
       <c r="L43" t="n">
-        <v>213.0728182703728</v>
+        <v>213.0728182703729</v>
       </c>
       <c r="M43" t="n">
-        <v>235.1494755843431</v>
+        <v>235.1494755843432</v>
       </c>
       <c r="N43" t="n">
         <v>235.0476581770937</v>
@@ -37956,7 +37956,7 @@
         <v>148.1690495550851</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.30671096229803</v>
+        <v>18.30671096229806</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>224.1092797284143</v>
+        <v>55.01266455634055</v>
       </c>
       <c r="K44" t="n">
-        <v>133.7007521391025</v>
+        <v>133.7007521391026</v>
       </c>
       <c r="L44" t="n">
         <v>620.8033271354464</v>
       </c>
       <c r="M44" t="n">
-        <v>258.0240722971093</v>
+        <v>674.2621117002074</v>
       </c>
       <c r="N44" t="n">
-        <v>674.2621117002075</v>
+        <v>266.8595840466107</v>
       </c>
       <c r="O44" t="n">
-        <v>274.9873749618138</v>
+        <v>619.3181583750616</v>
       </c>
       <c r="P44" t="n">
-        <v>168.7200793398052</v>
+        <v>168.7200793398053</v>
       </c>
       <c r="Q44" t="n">
-        <v>290.3574037273507</v>
+        <v>131.1288559042063</v>
       </c>
       <c r="R44" t="n">
-        <v>24.84113216753153</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>13.75723991609047</v>
+        <v>13.7572399160905</v>
       </c>
       <c r="K45" t="n">
         <v>102.4575816364469</v>
       </c>
       <c r="L45" t="n">
-        <v>555.3976534758339</v>
+        <v>410.2685811588398</v>
       </c>
       <c r="M45" t="n">
-        <v>674.2621117002075</v>
+        <v>674.2621117002074</v>
       </c>
       <c r="N45" t="n">
-        <v>612.8126684192223</v>
+        <v>255.6939405553983</v>
       </c>
       <c r="O45" t="n">
-        <v>211.4657641677289</v>
+        <v>605.3280834444586</v>
       </c>
       <c r="P45" t="n">
-        <v>150.1915691550064</v>
+        <v>468.6543377949436</v>
       </c>
       <c r="Q45" t="n">
-        <v>260.0529435288752</v>
+        <v>49.97565579302611</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,13 +38175,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>122.6779274396499</v>
+        <v>122.67792743965</v>
       </c>
       <c r="L46" t="n">
-        <v>213.0728182703728</v>
+        <v>213.0728182703729</v>
       </c>
       <c r="M46" t="n">
-        <v>235.1494755843431</v>
+        <v>235.1494755843432</v>
       </c>
       <c r="N46" t="n">
         <v>235.0476581770937</v>
@@ -38193,7 +38193,7 @@
         <v>148.1690495550851</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.30671096229803</v>
+        <v>18.30671096229806</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
